--- a/AAII_Financials/Quarterly/SSBI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SSBI_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>SSBI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,125 +665,131 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E8" s="3">
         <v>7600</v>
-      </c>
-      <c r="E8" s="3">
-        <v>7200</v>
       </c>
       <c r="F8" s="3">
         <v>7200</v>
       </c>
       <c r="G8" s="3">
+        <v>7200</v>
+      </c>
+      <c r="H8" s="3">
         <v>6800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6600</v>
-      </c>
-      <c r="I8" s="3">
-        <v>6100</v>
       </c>
       <c r="J8" s="3">
         <v>6100</v>
       </c>
       <c r="K8" s="3">
+        <v>6100</v>
+      </c>
+      <c r="L8" s="3">
         <v>5700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -829,8 +835,11 @@
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,46 +1124,47 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
-      </c>
-      <c r="O17" s="3">
-        <v>300</v>
       </c>
       <c r="P17" s="3">
         <v>300</v>
@@ -1146,55 +1172,61 @@
       <c r="Q17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E18" s="3">
         <v>5500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,37 +1244,38 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2700</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-3700</v>
       </c>
       <c r="F20" s="3">
         <v>-3700</v>
       </c>
       <c r="G20" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="H20" s="3">
         <v>-3800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3400</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-2900</v>
       </c>
       <c r="M20" s="3">
         <v>-2900</v>
@@ -1251,16 +1284,19 @@
         <v>-2900</v>
       </c>
       <c r="O20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="P20" s="3">
         <v>-2700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1300,14 +1336,17 @@
       <c r="O21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>2100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,55 +1392,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E23" s="3">
         <v>2900</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1700</v>
       </c>
       <c r="F23" s="3">
         <v>1700</v>
       </c>
       <c r="G23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H23" s="3">
         <v>1600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1500</v>
-      </c>
-      <c r="O23" s="3">
-        <v>2000</v>
       </c>
       <c r="P23" s="3">
         <v>2000</v>
       </c>
       <c r="Q23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R23" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1409,46 +1454,49 @@
         <v>800</v>
       </c>
       <c r="E24" s="3">
+        <v>800</v>
+      </c>
+      <c r="F24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
-      </c>
-      <c r="G24" s="3">
-        <v>500</v>
       </c>
       <c r="H24" s="3">
         <v>500</v>
       </c>
       <c r="I24" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J24" s="3">
         <v>600</v>
       </c>
       <c r="K24" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L24" s="3">
         <v>500</v>
       </c>
       <c r="M24" s="3">
+        <v>500</v>
+      </c>
+      <c r="N24" s="3">
         <v>700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>600</v>
-      </c>
-      <c r="O24" s="3">
-        <v>800</v>
       </c>
       <c r="P24" s="3">
         <v>800</v>
       </c>
       <c r="Q24" s="3">
+        <v>800</v>
+      </c>
+      <c r="R24" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E26" s="3">
         <v>2000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1500</v>
       </c>
       <c r="I26" s="3">
         <v>1500</v>
       </c>
       <c r="J26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K26" s="3">
         <v>1700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1000</v>
-      </c>
-      <c r="M26" s="3">
-        <v>900</v>
       </c>
       <c r="N26" s="3">
         <v>900</v>
       </c>
       <c r="O26" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="P26" s="3">
         <v>1200</v>
       </c>
       <c r="Q26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R26" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E27" s="3">
         <v>2000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>1500</v>
       </c>
       <c r="I27" s="3">
         <v>1500</v>
       </c>
       <c r="J27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K27" s="3">
         <v>1700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1000</v>
-      </c>
-      <c r="M27" s="3">
-        <v>900</v>
       </c>
       <c r="N27" s="3">
         <v>900</v>
       </c>
       <c r="O27" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="P27" s="3">
         <v>1200</v>
       </c>
       <c r="Q27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R27" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1661,12 +1721,12 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
         <v>-300</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1682,8 +1742,11 @@
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,37 +1842,40 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E32" s="3">
         <v>2700</v>
-      </c>
-      <c r="E32" s="3">
-        <v>3700</v>
       </c>
       <c r="F32" s="3">
         <v>3700</v>
       </c>
       <c r="G32" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H32" s="3">
         <v>3800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3400</v>
-      </c>
-      <c r="L32" s="3">
-        <v>2900</v>
       </c>
       <c r="M32" s="3">
         <v>2900</v>
@@ -1815,63 +1884,69 @@
         <v>2900</v>
       </c>
       <c r="O32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="P32" s="3">
         <v>2700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E33" s="3">
         <v>2000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>1500</v>
       </c>
       <c r="I33" s="3">
         <v>1500</v>
       </c>
       <c r="J33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K33" s="3">
         <v>1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1000</v>
-      </c>
-      <c r="M33" s="3">
-        <v>900</v>
       </c>
       <c r="N33" s="3">
         <v>900</v>
       </c>
       <c r="O33" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="P33" s="3">
         <v>1200</v>
       </c>
       <c r="Q33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R33" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E35" s="3">
         <v>2000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>1500</v>
       </c>
       <c r="I35" s="3">
         <v>1500</v>
       </c>
       <c r="J35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K35" s="3">
         <v>1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1000</v>
-      </c>
-      <c r="M35" s="3">
-        <v>900</v>
       </c>
       <c r="N35" s="3">
         <v>900</v>
       </c>
       <c r="O35" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="P35" s="3">
         <v>1200</v>
       </c>
       <c r="Q35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R35" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E41" s="3">
         <v>37000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>18600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>21700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>20900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>23700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>18900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>68800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>20400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>20200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>20800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>24200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>20100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2113,7 +2202,7 @@
         <v>3300</v>
       </c>
       <c r="F42" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="G42" s="3">
         <v>3100</v>
@@ -2125,7 +2214,7 @@
         <v>3100</v>
       </c>
       <c r="J42" s="3">
-        <v>5100</v>
+        <v>3100</v>
       </c>
       <c r="K42" s="3">
         <v>5100</v>
@@ -2134,22 +2223,25 @@
         <v>5100</v>
       </c>
       <c r="M42" s="3">
+        <v>5100</v>
+      </c>
+      <c r="N42" s="3">
         <v>4800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>5200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>5300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>4900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2287,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2337,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2289,8 +2387,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2336,8 +2437,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,8 +2487,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2395,43 +2502,46 @@
         <v>6300</v>
       </c>
       <c r="F48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G48" s="3">
         <v>6400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5300</v>
-      </c>
-      <c r="I48" s="3">
-        <v>5200</v>
       </c>
       <c r="J48" s="3">
         <v>5200</v>
       </c>
       <c r="K48" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="L48" s="3">
         <v>5300</v>
       </c>
       <c r="M48" s="3">
+        <v>5300</v>
+      </c>
+      <c r="N48" s="3">
         <v>5400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5400</v>
-      </c>
-      <c r="P48" s="3">
-        <v>5500</v>
       </c>
       <c r="Q48" s="3">
         <v>5500</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>4100</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2737,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>696000</v>
+      </c>
+      <c r="E54" s="3">
         <v>680800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>635600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>626300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>622100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>595200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>586000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>577000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>610900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>539000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>537500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>524500</v>
-      </c>
-      <c r="O54" s="3">
-        <v>513700</v>
       </c>
       <c r="P54" s="3">
         <v>513700</v>
       </c>
       <c r="Q54" s="3">
+        <v>513700</v>
+      </c>
+      <c r="R54" s="3">
         <v>518300</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +2879,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2759,46 +2889,49 @@
         <v>3300</v>
       </c>
       <c r="E57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F57" s="3">
         <v>3500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,8 +2977,11 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2891,8 +3027,11 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2938,8 +3077,11 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2950,7 +3092,7 @@
         <v>5900</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2985,8 +3127,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3177,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>628600</v>
+      </c>
+      <c r="E66" s="3">
         <v>614300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>570900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>562900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>560600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>534700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>525800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>517300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>551200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>478500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>477000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>465200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>455100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>453400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>458800</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="3">
         <v>28800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>27500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>27000</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H72" s="3">
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3">
         <v>25900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>25200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>24400</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>23600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>23300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>23100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>22800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>22200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>67300</v>
+      </c>
+      <c r="E76" s="3">
         <v>66500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>64700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>63400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>61500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>60500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>60200</v>
-      </c>
-      <c r="J76" s="3">
-        <v>59700</v>
       </c>
       <c r="K76" s="3">
         <v>59700</v>
       </c>
       <c r="L76" s="3">
+        <v>59700</v>
+      </c>
+      <c r="M76" s="3">
         <v>60500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>60400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>59300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>58600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>60300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E81" s="3">
         <v>2000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>1500</v>
       </c>
       <c r="I81" s="3">
         <v>1500</v>
       </c>
       <c r="J81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K81" s="3">
         <v>1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1000</v>
-      </c>
-      <c r="M81" s="3">
-        <v>900</v>
       </c>
       <c r="N81" s="3">
         <v>900</v>
       </c>
       <c r="O81" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="P81" s="3">
         <v>1200</v>
       </c>
       <c r="Q81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R81" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3865,17 +4063,20 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P83" s="3">
-        <v>100</v>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4322,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4147,17 +4363,20 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>1900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4213,17 +4433,20 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4542,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4354,17 +4583,20 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4424,13 +4657,16 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="Q96" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +4812,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4608,17 +4853,20 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,8 +4912,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4702,13 +4953,16 @@
       <c r="N102" s="3">
         <v>0</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SSBI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SSBI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>SSBI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,138 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E8" s="3">
         <v>8000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7600</v>
-      </c>
-      <c r="F8" s="3">
-        <v>7200</v>
       </c>
       <c r="G8" s="3">
         <v>7200</v>
       </c>
       <c r="H8" s="3">
+        <v>7200</v>
+      </c>
+      <c r="I8" s="3">
         <v>6800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6600</v>
-      </c>
-      <c r="J8" s="3">
-        <v>6100</v>
       </c>
       <c r="K8" s="3">
         <v>6100</v>
       </c>
       <c r="L8" s="3">
+        <v>6100</v>
+      </c>
+      <c r="M8" s="3">
         <v>5700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,49 +1151,50 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E17" s="3">
         <v>2000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
-      </c>
-      <c r="P17" s="3">
-        <v>300</v>
       </c>
       <c r="Q17" s="3">
         <v>300</v>
@@ -1175,58 +1202,64 @@
       <c r="R17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E18" s="3">
         <v>6000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,40 +1278,41 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2700</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-3700</v>
       </c>
       <c r="G20" s="3">
         <v>-3700</v>
       </c>
       <c r="H20" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="I20" s="3">
         <v>-3800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3400</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-2900</v>
       </c>
       <c r="N20" s="3">
         <v>-2900</v>
@@ -1287,16 +1321,19 @@
         <v>-2900</v>
       </c>
       <c r="P20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1339,14 +1376,17 @@
       <c r="P21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
         <v>2100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,108 +1435,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E23" s="3">
         <v>2600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2900</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1700</v>
       </c>
       <c r="G23" s="3">
         <v>1700</v>
       </c>
       <c r="H23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I23" s="3">
         <v>1600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1500</v>
-      </c>
-      <c r="P23" s="3">
-        <v>2000</v>
       </c>
       <c r="Q23" s="3">
         <v>2000</v>
       </c>
       <c r="R23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S23" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E24" s="3">
         <v>800</v>
       </c>
       <c r="F24" s="3">
+        <v>800</v>
+      </c>
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
-      </c>
-      <c r="H24" s="3">
-        <v>500</v>
       </c>
       <c r="I24" s="3">
         <v>500</v>
       </c>
       <c r="J24" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K24" s="3">
         <v>600</v>
       </c>
       <c r="L24" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M24" s="3">
         <v>500</v>
       </c>
       <c r="N24" s="3">
+        <v>500</v>
+      </c>
+      <c r="O24" s="3">
         <v>700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>600</v>
-      </c>
-      <c r="P24" s="3">
-        <v>800</v>
       </c>
       <c r="Q24" s="3">
         <v>800</v>
       </c>
       <c r="R24" s="3">
+        <v>800</v>
+      </c>
+      <c r="S24" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E26" s="3">
         <v>1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>1500</v>
       </c>
       <c r="J26" s="3">
         <v>1500</v>
       </c>
       <c r="K26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L26" s="3">
         <v>1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1000</v>
-      </c>
-      <c r="N26" s="3">
-        <v>900</v>
       </c>
       <c r="O26" s="3">
         <v>900</v>
       </c>
       <c r="P26" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="Q26" s="3">
         <v>1200</v>
       </c>
       <c r="R26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S26" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E27" s="3">
         <v>1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>1500</v>
       </c>
       <c r="J27" s="3">
         <v>1500</v>
       </c>
       <c r="K27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L27" s="3">
         <v>1700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1000</v>
-      </c>
-      <c r="N27" s="3">
-        <v>900</v>
       </c>
       <c r="O27" s="3">
         <v>900</v>
       </c>
       <c r="P27" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="Q27" s="3">
         <v>1200</v>
       </c>
       <c r="R27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S27" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1724,12 +1785,12 @@
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>-300</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,40 +1912,43 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E32" s="3">
         <v>3300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2700</v>
-      </c>
-      <c r="F32" s="3">
-        <v>3700</v>
       </c>
       <c r="G32" s="3">
         <v>3700</v>
       </c>
       <c r="H32" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I32" s="3">
         <v>3800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3400</v>
-      </c>
-      <c r="M32" s="3">
-        <v>2900</v>
       </c>
       <c r="N32" s="3">
         <v>2900</v>
@@ -1887,66 +1957,72 @@
         <v>2900</v>
       </c>
       <c r="P32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Q32" s="3">
         <v>2700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E33" s="3">
         <v>1800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>1500</v>
       </c>
       <c r="J33" s="3">
         <v>1500</v>
       </c>
       <c r="K33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L33" s="3">
         <v>1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1000</v>
-      </c>
-      <c r="N33" s="3">
-        <v>900</v>
       </c>
       <c r="O33" s="3">
         <v>900</v>
       </c>
       <c r="P33" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="Q33" s="3">
         <v>1200</v>
       </c>
       <c r="R33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S33" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E35" s="3">
         <v>1800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>1500</v>
       </c>
       <c r="J35" s="3">
         <v>1500</v>
       </c>
       <c r="K35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L35" s="3">
         <v>1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1000</v>
-      </c>
-      <c r="N35" s="3">
-        <v>900</v>
       </c>
       <c r="O35" s="3">
         <v>900</v>
       </c>
       <c r="P35" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="Q35" s="3">
         <v>1200</v>
       </c>
       <c r="R35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S35" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E41" s="3">
         <v>38300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>37000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>18600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>21700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>20900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>23700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>18900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>68800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>20400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>20200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>20800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>24200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>20100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2205,7 +2295,7 @@
         <v>3300</v>
       </c>
       <c r="G42" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="H42" s="3">
         <v>3100</v>
@@ -2217,7 +2307,7 @@
         <v>3100</v>
       </c>
       <c r="K42" s="3">
-        <v>5100</v>
+        <v>3100</v>
       </c>
       <c r="L42" s="3">
         <v>5100</v>
@@ -2226,22 +2316,25 @@
         <v>5100</v>
       </c>
       <c r="N42" s="3">
+        <v>5100</v>
+      </c>
+      <c r="O42" s="3">
         <v>4800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>5200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>5300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>4900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2390,8 +2489,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2440,8 +2542,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2505,43 +2613,46 @@
         <v>6300</v>
       </c>
       <c r="G48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="H48" s="3">
         <v>6400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5300</v>
-      </c>
-      <c r="J48" s="3">
-        <v>5200</v>
       </c>
       <c r="K48" s="3">
         <v>5200</v>
       </c>
       <c r="L48" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="M48" s="3">
         <v>5300</v>
       </c>
       <c r="N48" s="3">
+        <v>5300</v>
+      </c>
+      <c r="O48" s="3">
         <v>5400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5400</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>5500</v>
       </c>
       <c r="R48" s="3">
         <v>5500</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>4100</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>721600</v>
+      </c>
+      <c r="E54" s="3">
         <v>696000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>680800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>635600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>626300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>622100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>595200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>586000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>577000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>610900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>539000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>537500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>524500</v>
-      </c>
-      <c r="P54" s="3">
-        <v>513700</v>
       </c>
       <c r="Q54" s="3">
         <v>513700</v>
       </c>
       <c r="R54" s="3">
+        <v>513700</v>
+      </c>
+      <c r="S54" s="3">
         <v>518300</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,58 +3010,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3300</v>
+        <v>4300</v>
       </c>
       <c r="E57" s="3">
         <v>3300</v>
       </c>
       <c r="F57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G57" s="3">
         <v>3500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,8 +3114,11 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3030,8 +3167,11 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3080,8 +3220,11 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3095,7 +3238,7 @@
         <v>5900</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>653400</v>
+      </c>
+      <c r="E66" s="3">
         <v>628600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>614300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>570900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>562900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>560600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>534700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>525800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>517300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>551200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>478500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>477000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>465200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>455100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>453400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>458800</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="3">
+      <c r="D72" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="3">
         <v>28800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>27500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>27000</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I72" s="3">
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3">
         <v>25900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>25200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>24400</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>23600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>23300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>23100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>22800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>22200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>68200</v>
+      </c>
+      <c r="E76" s="3">
         <v>67300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>66500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>64700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>63400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>61500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>60500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>60200</v>
-      </c>
-      <c r="K76" s="3">
-        <v>59700</v>
       </c>
       <c r="L76" s="3">
         <v>59700</v>
       </c>
       <c r="M76" s="3">
+        <v>59700</v>
+      </c>
+      <c r="N76" s="3">
         <v>60500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>60400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>59300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>58600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>60300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E81" s="3">
         <v>1800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>1500</v>
       </c>
       <c r="J81" s="3">
         <v>1500</v>
       </c>
       <c r="K81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L81" s="3">
         <v>1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1000</v>
-      </c>
-      <c r="N81" s="3">
-        <v>900</v>
       </c>
       <c r="O81" s="3">
         <v>900</v>
       </c>
       <c r="P81" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="Q81" s="3">
         <v>1200</v>
       </c>
       <c r="R81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S81" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4066,17 +4265,20 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>100</v>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4366,17 +4583,20 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3">
         <v>1900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4436,17 +4657,20 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4586,17 +4816,20 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
         <v>-2900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4660,13 +4894,16 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="R96" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4856,17 +5102,20 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3">
         <v>-1100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4956,13 +5208,16 @@
       <c r="O102" s="3">
         <v>0</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3">
         <v>-2100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SSBI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SSBI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>SSBI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,134 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>8800</v>
+      </c>
+      <c r="F8" s="3">
         <v>8300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>8000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>7600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>7200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>7200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>6800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>6600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>6100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>6100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>5700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>5200</v>
-      </c>
-      <c r="O8" s="3">
-        <v>5000</v>
-      </c>
-      <c r="P8" s="3">
-        <v>4800</v>
       </c>
       <c r="Q8" s="3">
         <v>5000</v>
@@ -793,10 +801,16 @@
         <v>4800</v>
       </c>
       <c r="S8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="T8" s="3">
+        <v>4800</v>
+      </c>
+      <c r="U8" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -848,8 +862,14 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +921,14 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +1003,14 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1062,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1121,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1204,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F17" s="3">
         <v>2400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1100</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L17" s="3">
-        <v>900</v>
       </c>
       <c r="M17" s="3">
         <v>1000</v>
       </c>
       <c r="N17" s="3">
+        <v>900</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>300</v>
-      </c>
-      <c r="R17" s="3">
-        <v>300</v>
       </c>
       <c r="S17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>300</v>
+      </c>
+      <c r="U17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F18" s="3">
         <v>5900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>6000</v>
-      </c>
-      <c r="F18" s="3">
-        <v>5500</v>
-      </c>
-      <c r="G18" s="3">
-        <v>5300</v>
       </c>
       <c r="H18" s="3">
         <v>5500</v>
       </c>
       <c r="I18" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="J18" s="3">
         <v>5500</v>
       </c>
       <c r="K18" s="3">
+        <v>5400</v>
+      </c>
+      <c r="L18" s="3">
+        <v>5500</v>
+      </c>
+      <c r="M18" s="3">
         <v>5100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>5200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>4700</v>
-      </c>
-      <c r="N18" s="3">
-        <v>4400</v>
-      </c>
-      <c r="O18" s="3">
-        <v>4500</v>
       </c>
       <c r="P18" s="3">
         <v>4400</v>
       </c>
       <c r="Q18" s="3">
+        <v>4500</v>
+      </c>
+      <c r="R18" s="3">
+        <v>4400</v>
+      </c>
+      <c r="S18" s="3">
         <v>4700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>4500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,61 +1345,69 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-3300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-2700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-3700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-3700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-3800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-3500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-3000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-2800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-3400</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-2900</v>
       </c>
       <c r="P20" s="3">
         <v>-2900</v>
       </c>
       <c r="Q20" s="3">
-        <v>-2700</v>
+        <v>-2900</v>
       </c>
       <c r="R20" s="3">
-        <v>-2500</v>
+        <v>-2900</v>
       </c>
       <c r="S20" s="3">
         <v>-2700</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="U20" s="3">
+        <v>-2700</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1379,14 +1453,20 @@
       <c r="Q21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3">
         <v>2100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,114 +1518,132 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F23" s="3">
         <v>3400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>2600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>2900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>1700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>1700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>1600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>2000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>2100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>2400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1300</v>
-      </c>
-      <c r="N23" s="3">
-        <v>1500</v>
-      </c>
-      <c r="O23" s="3">
-        <v>1600</v>
       </c>
       <c r="P23" s="3">
         <v>1500</v>
       </c>
       <c r="Q23" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R23" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S23" s="3">
         <v>2000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>2000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>900</v>
+      </c>
+      <c r="F24" s="3">
         <v>1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>800</v>
-      </c>
-      <c r="G24" s="3">
-        <v>500</v>
-      </c>
-      <c r="H24" s="3">
-        <v>300</v>
       </c>
       <c r="I24" s="3">
         <v>500</v>
       </c>
       <c r="J24" s="3">
+        <v>300</v>
+      </c>
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
+        <v>500</v>
+      </c>
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F26" s="3">
         <v>2400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>2000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>1200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>1200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F27" s="3">
         <v>2400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>2000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>1200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>1200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1788,15 +1910,15 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>-300</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1809,8 +1931,14 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +2049,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F32" s="3">
         <v>2500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>3300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>2700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>3700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>3700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>3800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>3500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>3000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>2800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>3400</v>
-      </c>
-      <c r="N32" s="3">
-        <v>2900</v>
-      </c>
-      <c r="O32" s="3">
-        <v>2900</v>
       </c>
       <c r="P32" s="3">
         <v>2900</v>
       </c>
       <c r="Q32" s="3">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="R32" s="3">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="S32" s="3">
         <v>2700</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>2500</v>
+      </c>
+      <c r="U32" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F33" s="3">
         <v>2400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>2000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>1200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>1200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2226,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F35" s="3">
         <v>2400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>2000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>1200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>1200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,69 +2399,77 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>68000</v>
+      </c>
+      <c r="F41" s="3">
         <v>36500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>38300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>37000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>12100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>18600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>21700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>20900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>23700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>18900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>68800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>20400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>20200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>20800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>24200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>20100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="E42" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="F42" s="3">
         <v>3300</v>
@@ -2298,10 +2478,10 @@
         <v>3300</v>
       </c>
       <c r="H42" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="I42" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="J42" s="3">
         <v>3100</v>
@@ -2310,31 +2490,37 @@
         <v>3100</v>
       </c>
       <c r="L42" s="3">
-        <v>5100</v>
+        <v>3100</v>
       </c>
       <c r="M42" s="3">
-        <v>5100</v>
+        <v>3100</v>
       </c>
       <c r="N42" s="3">
         <v>5100</v>
       </c>
       <c r="O42" s="3">
+        <v>5100</v>
+      </c>
+      <c r="P42" s="3">
+        <v>5100</v>
+      </c>
+      <c r="Q42" s="3">
         <v>4800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>5200</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>5300</v>
-      </c>
-      <c r="R42" s="3">
-        <v>4900</v>
       </c>
       <c r="S42" s="3">
         <v>5300</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>4900</v>
+      </c>
+      <c r="U42" s="3">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2572,14 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2631,14 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,8 +2690,14 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,8 +2749,14 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,16 +2808,22 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6300</v>
+        <v>7000</v>
       </c>
       <c r="E48" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="F48" s="3">
         <v>6300</v>
@@ -2616,31 +2832,31 @@
         <v>6300</v>
       </c>
       <c r="H48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="I48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="J48" s="3">
         <v>6400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>5800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>5300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>5200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>5200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>5300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>5300</v>
-      </c>
-      <c r="O48" s="3">
-        <v>5400</v>
-      </c>
-      <c r="P48" s="3">
-        <v>5500</v>
       </c>
       <c r="Q48" s="3">
         <v>5400</v>
@@ -2649,10 +2865,16 @@
         <v>5500</v>
       </c>
       <c r="S48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="T48" s="3">
         <v>5500</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2926,14 @@
       <c r="S49" s="3">
         <v>4100</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>4100</v>
+      </c>
+      <c r="U49" s="3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +3044,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +3103,14 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3162,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>833800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>850700</v>
+      </c>
+      <c r="F54" s="3">
         <v>721600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>696000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>680800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>635600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>626300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>622100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>595200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>586000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>577000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>610900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>539000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>537500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>524500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>513700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>513700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>518300</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3271,69 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F57" s="3">
         <v>4300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>3300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>3300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>3500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>3000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2600</v>
-      </c>
-      <c r="J57" s="3">
-        <v>2200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>1600</v>
       </c>
       <c r="L57" s="3">
         <v>2200</v>
       </c>
       <c r="M57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O57" s="3">
         <v>2700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>3200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,31 +3385,37 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+        <v>900</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -3170,8 +3444,14 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3223,8 +3503,14 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3241,10 +3527,10 @@
         <v>5900</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -3276,8 +3562,14 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3621,14 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3798,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>760400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>779400</v>
+      </c>
+      <c r="F66" s="3">
         <v>653400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>628600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>614300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>570900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>562900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>560600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>534700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>525800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>517300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>551200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>478500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>477000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>465200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>455100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>453400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>458800</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4116,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>33100</v>
+      </c>
+      <c r="F72" s="3">
         <v>31600</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3">
         <v>28800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>27500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>27000</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>25900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>25200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>24400</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>23600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>23300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>23100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>22800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>22200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4352,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>73400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>71200</v>
+      </c>
+      <c r="F76" s="3">
         <v>68200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>67300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>66500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>64700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>63400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>61500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>60500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>60200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>59700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>59700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>60500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>60400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>59300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>58600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>60300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4470,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F81" s="3">
         <v>2400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>2000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>1200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>1200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4620,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4268,17 +4666,23 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T83" s="3">
         <v>100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4970,14 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4586,17 +5020,23 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>5</v>
+      <c r="Q89" s="3">
+        <v>0</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T89" s="3">
         <v>1900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +5056,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4660,17 +5102,23 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5229,14 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4819,17 +5279,23 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T94" s="3">
         <v>-2900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4897,13 +5365,19 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5547,14 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5105,17 +5597,23 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>5</v>
+      <c r="Q100" s="3">
+        <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T100" s="3">
         <v>-1100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5665,14 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5211,13 +5715,19 @@
       <c r="P102" s="3">
         <v>0</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>5</v>
+      <c r="Q102" s="3">
+        <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T102" s="3">
         <v>-2100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SSBI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SSBI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
   <si>
     <t>SSBI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,152 +665,158 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E8" s="3">
         <v>9200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7600</v>
-      </c>
-      <c r="I8" s="3">
-        <v>7200</v>
       </c>
       <c r="J8" s="3">
         <v>7200</v>
       </c>
       <c r="K8" s="3">
+        <v>7200</v>
+      </c>
+      <c r="L8" s="3">
         <v>6800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6600</v>
-      </c>
-      <c r="M8" s="3">
-        <v>6100</v>
       </c>
       <c r="N8" s="3">
         <v>6100</v>
       </c>
       <c r="O8" s="3">
+        <v>6100</v>
+      </c>
+      <c r="P8" s="3">
         <v>5700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -868,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,58 +1231,59 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E17" s="3">
         <v>1900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
-      </c>
-      <c r="S17" s="3">
-        <v>300</v>
       </c>
       <c r="T17" s="3">
         <v>300</v>
@@ -1265,67 +1291,73 @@
       <c r="U17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E18" s="3">
         <v>7300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>6700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>6000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,49 +1379,50 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2700</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-3700</v>
       </c>
       <c r="J20" s="3">
         <v>-3700</v>
       </c>
       <c r="K20" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="L20" s="3">
         <v>-3800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3400</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-2900</v>
       </c>
       <c r="Q20" s="3">
         <v>-2900</v>
@@ -1398,21 +1431,24 @@
         <v>-2900</v>
       </c>
       <c r="S20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="T20" s="3">
         <v>-2700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>4000</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>5</v>
@@ -1459,14 +1495,17 @@
       <c r="S21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3">
         <v>2100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,8 +1563,11 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1533,58 +1575,61 @@
         <v>4200</v>
       </c>
       <c r="E23" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F23" s="3">
         <v>3200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2900</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1700</v>
       </c>
       <c r="J23" s="3">
         <v>1700</v>
       </c>
       <c r="K23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L23" s="3">
         <v>1600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1500</v>
-      </c>
-      <c r="S23" s="3">
-        <v>2000</v>
       </c>
       <c r="T23" s="3">
         <v>2000</v>
       </c>
       <c r="U23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V23" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1592,58 +1637,61 @@
         <v>1200</v>
       </c>
       <c r="E24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F24" s="3">
         <v>900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>800</v>
       </c>
       <c r="H24" s="3">
         <v>800</v>
       </c>
       <c r="I24" s="3">
+        <v>800</v>
+      </c>
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
-      </c>
-      <c r="K24" s="3">
-        <v>500</v>
       </c>
       <c r="L24" s="3">
         <v>500</v>
       </c>
       <c r="M24" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N24" s="3">
         <v>600</v>
       </c>
       <c r="O24" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P24" s="3">
         <v>500</v>
       </c>
       <c r="Q24" s="3">
+        <v>500</v>
+      </c>
+      <c r="R24" s="3">
         <v>700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>600</v>
-      </c>
-      <c r="S24" s="3">
-        <v>800</v>
       </c>
       <c r="T24" s="3">
         <v>800</v>
       </c>
       <c r="U24" s="3">
+        <v>800</v>
+      </c>
+      <c r="V24" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E26" s="3">
         <v>3000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1100</v>
-      </c>
-      <c r="L26" s="3">
-        <v>1500</v>
       </c>
       <c r="M26" s="3">
         <v>1500</v>
       </c>
       <c r="N26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O26" s="3">
         <v>1700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>900</v>
       </c>
       <c r="R26" s="3">
         <v>900</v>
       </c>
       <c r="S26" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T26" s="3">
         <v>1200</v>
       </c>
       <c r="U26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V26" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E27" s="3">
         <v>3000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1100</v>
-      </c>
-      <c r="L27" s="3">
-        <v>1500</v>
       </c>
       <c r="M27" s="3">
         <v>1500</v>
       </c>
       <c r="N27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O27" s="3">
         <v>1700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>900</v>
       </c>
       <c r="R27" s="3">
         <v>900</v>
       </c>
       <c r="S27" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T27" s="3">
         <v>1200</v>
       </c>
       <c r="U27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V27" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1916,12 +1976,12 @@
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
         <v>-300</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1937,8 +1997,11 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,49 +2121,52 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E32" s="3">
         <v>3100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2700</v>
-      </c>
-      <c r="I32" s="3">
-        <v>3700</v>
       </c>
       <c r="J32" s="3">
         <v>3700</v>
       </c>
       <c r="K32" s="3">
+        <v>3700</v>
+      </c>
+      <c r="L32" s="3">
         <v>3800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3400</v>
-      </c>
-      <c r="P32" s="3">
-        <v>2900</v>
       </c>
       <c r="Q32" s="3">
         <v>2900</v>
@@ -2106,75 +2175,81 @@
         <v>2900</v>
       </c>
       <c r="S32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="T32" s="3">
         <v>2700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E33" s="3">
         <v>3000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1100</v>
-      </c>
-      <c r="L33" s="3">
-        <v>1500</v>
       </c>
       <c r="M33" s="3">
         <v>1500</v>
       </c>
       <c r="N33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O33" s="3">
         <v>1700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>900</v>
       </c>
       <c r="R33" s="3">
         <v>900</v>
       </c>
       <c r="S33" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T33" s="3">
         <v>1200</v>
       </c>
       <c r="U33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V33" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E35" s="3">
         <v>3000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1100</v>
-      </c>
-      <c r="L35" s="3">
-        <v>1500</v>
       </c>
       <c r="M35" s="3">
         <v>1500</v>
       </c>
       <c r="N35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O35" s="3">
         <v>1700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>900</v>
       </c>
       <c r="R35" s="3">
         <v>900</v>
       </c>
       <c r="S35" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T35" s="3">
         <v>1200</v>
       </c>
       <c r="U35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V35" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E41" s="3">
         <v>24300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>68000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>36500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>38300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>37000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>12100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>18600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>21700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>20900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>23700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>18900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>68800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>20400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>20200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>20800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>24200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>20100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2472,7 +2561,7 @@
         <v>3400</v>
       </c>
       <c r="F42" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="G42" s="3">
         <v>3300</v>
@@ -2484,7 +2573,7 @@
         <v>3300</v>
       </c>
       <c r="J42" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="K42" s="3">
         <v>3100</v>
@@ -2496,7 +2585,7 @@
         <v>3100</v>
       </c>
       <c r="N42" s="3">
-        <v>5100</v>
+        <v>3100</v>
       </c>
       <c r="O42" s="3">
         <v>5100</v>
@@ -2505,22 +2594,25 @@
         <v>5100</v>
       </c>
       <c r="Q42" s="3">
+        <v>5100</v>
+      </c>
+      <c r="R42" s="3">
         <v>4800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>5200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>5300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>4900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2578,8 +2670,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,8 +2732,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2696,8 +2794,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2755,8 +2856,11 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,19 +2918,22 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E48" s="3">
         <v>7000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6200</v>
-      </c>
-      <c r="F48" s="3">
-        <v>6300</v>
       </c>
       <c r="G48" s="3">
         <v>6300</v>
@@ -2838,43 +2945,46 @@
         <v>6300</v>
       </c>
       <c r="J48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="K48" s="3">
         <v>6400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5300</v>
-      </c>
-      <c r="M48" s="3">
-        <v>5200</v>
       </c>
       <c r="N48" s="3">
         <v>5200</v>
       </c>
       <c r="O48" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="P48" s="3">
         <v>5300</v>
       </c>
       <c r="Q48" s="3">
+        <v>5300</v>
+      </c>
+      <c r="R48" s="3">
         <v>5400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5400</v>
-      </c>
-      <c r="T48" s="3">
-        <v>5500</v>
       </c>
       <c r="U48" s="3">
         <v>5500</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3042,11 @@
       <c r="U49" s="3">
         <v>4100</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3109,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>865900</v>
+      </c>
+      <c r="E54" s="3">
         <v>833800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>850700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>721600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>696000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>680800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>635600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>626300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>622100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>595200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>586000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>577000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>610900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>539000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>537500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>524500</v>
-      </c>
-      <c r="S54" s="3">
-        <v>513700</v>
       </c>
       <c r="T54" s="3">
         <v>513700</v>
       </c>
       <c r="U54" s="3">
+        <v>513700</v>
+      </c>
+      <c r="V54" s="3">
         <v>518300</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,67 +3402,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E57" s="3">
         <v>4200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>3300</v>
       </c>
       <c r="H57" s="3">
         <v>3300</v>
       </c>
       <c r="I57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J57" s="3">
         <v>3500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3391,17 +3524,20 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3417,8 +3553,8 @@
       <c r="J59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -3450,8 +3586,11 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3509,8 +3648,11 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3533,7 +3675,7 @@
         <v>5900</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -3568,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3627,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>790200</v>
+      </c>
+      <c r="E66" s="3">
         <v>760400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>779400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>653400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>628600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>614300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>570900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>562900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>560600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>534700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>525800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>517300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>551200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>478500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>477000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>465200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>455100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>453400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>458800</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E72" s="3">
         <v>35300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>33100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>31600</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H72" s="3">
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3">
         <v>28800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>27500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>27000</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>25900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>25200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>24400</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>23600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>23300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>23100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>22800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>22200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>75600</v>
+      </c>
+      <c r="E76" s="3">
         <v>73400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>71200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>68200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>67300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>66500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>64700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>63400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>61500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>60500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>60200</v>
-      </c>
-      <c r="N76" s="3">
-        <v>59700</v>
       </c>
       <c r="O76" s="3">
         <v>59700</v>
       </c>
       <c r="P76" s="3">
+        <v>59700</v>
+      </c>
+      <c r="Q76" s="3">
         <v>60500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>60400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>59300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>58600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>60300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E81" s="3">
         <v>3000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1100</v>
-      </c>
-      <c r="L81" s="3">
-        <v>1500</v>
       </c>
       <c r="M81" s="3">
         <v>1500</v>
       </c>
       <c r="N81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O81" s="3">
         <v>1700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>900</v>
       </c>
       <c r="R81" s="3">
         <v>900</v>
       </c>
       <c r="S81" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T81" s="3">
         <v>1200</v>
       </c>
       <c r="U81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V81" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,31 +4819,32 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>-200</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -4672,17 +4870,20 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T83" s="3">
-        <v>100</v>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,31 +5189,34 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
-      </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
+        <v>2000</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -5026,17 +5242,20 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U89" s="3">
         <v>1900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,31 +5277,32 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -5108,17 +5328,20 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,31 +5461,34 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>-25200</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -5285,17 +5514,20 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U94" s="3">
         <v>-2900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,13 +5549,14 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -5371,13 +5604,16 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="U96" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,31 +5795,34 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+        <v>29700</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -5603,17 +5848,20 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U100" s="3">
         <v>-1100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,31 +5919,34 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
-      </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
+        <v>6600</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -5721,13 +5972,16 @@
       <c r="R102" s="3">
         <v>0</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U102" s="3">
         <v>-2100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SSBI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SSBI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
   <si>
     <t>SSBI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,104 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -762,49 +770,49 @@
         <v>10100</v>
       </c>
       <c r="E8" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F8" s="3">
+        <v>10100</v>
+      </c>
+      <c r="G8" s="3">
         <v>9200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>8800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>8300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>8000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>7600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>7200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>7200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>6800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>6600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>6100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>6100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>5700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>5200</v>
-      </c>
-      <c r="R8" s="3">
-        <v>5000</v>
-      </c>
-      <c r="S8" s="3">
-        <v>4800</v>
       </c>
       <c r="T8" s="3">
         <v>5000</v>
@@ -813,10 +821,16 @@
         <v>4800</v>
       </c>
       <c r="V8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="W8" s="3">
+        <v>4800</v>
+      </c>
+      <c r="X8" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -877,8 +891,14 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +959,14 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +989,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1053,14 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1121,14 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1189,14 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1257,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1284,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F17" s="3">
         <v>1800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1100</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O17" s="3">
-        <v>900</v>
       </c>
       <c r="P17" s="3">
         <v>1000</v>
       </c>
       <c r="Q17" s="3">
+        <v>900</v>
+      </c>
+      <c r="R17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>400</v>
-      </c>
-      <c r="T17" s="3">
-        <v>300</v>
-      </c>
-      <c r="U17" s="3">
-        <v>300</v>
       </c>
       <c r="V17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>300</v>
+      </c>
+      <c r="X17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>8800</v>
+      </c>
+      <c r="F18" s="3">
         <v>8300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>7300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>6700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>5900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>6000</v>
-      </c>
-      <c r="I18" s="3">
-        <v>5500</v>
-      </c>
-      <c r="J18" s="3">
-        <v>5300</v>
       </c>
       <c r="K18" s="3">
         <v>5500</v>
       </c>
       <c r="L18" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="M18" s="3">
         <v>5500</v>
       </c>
       <c r="N18" s="3">
+        <v>5400</v>
+      </c>
+      <c r="O18" s="3">
+        <v>5500</v>
+      </c>
+      <c r="P18" s="3">
         <v>5100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>5200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>4700</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>4400</v>
-      </c>
-      <c r="R18" s="3">
-        <v>4500</v>
       </c>
       <c r="S18" s="3">
         <v>4400</v>
       </c>
       <c r="T18" s="3">
+        <v>4500</v>
+      </c>
+      <c r="U18" s="3">
+        <v>4400</v>
+      </c>
+      <c r="V18" s="3">
         <v>4700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>4500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,82 +1446,90 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="G20" s="3">
         <v>-3100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-3500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-2500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-3300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-2700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-3700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-3700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-3800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-3500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-3000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-2800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-3400</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-2900</v>
       </c>
       <c r="S20" s="3">
         <v>-2900</v>
       </c>
       <c r="T20" s="3">
-        <v>-2700</v>
+        <v>-2900</v>
       </c>
       <c r="U20" s="3">
-        <v>-2500</v>
+        <v>-2900</v>
       </c>
       <c r="V20" s="3">
         <v>-2700</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="X20" s="3">
+        <v>-2700</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F21" s="3">
         <v>4000</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1498,14 +1572,20 @@
       <c r="T21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="3">
         <v>2100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,132 +1646,150 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F23" s="3">
         <v>4200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>4200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>3200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>3400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>2600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>2900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>2000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>2100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>2400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>1500</v>
-      </c>
-      <c r="R23" s="3">
-        <v>1600</v>
       </c>
       <c r="S23" s="3">
         <v>1500</v>
       </c>
       <c r="T23" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U23" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V23" s="3">
         <v>2000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>2000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F24" s="3">
         <v>1200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>1200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>1000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>800</v>
-      </c>
-      <c r="J24" s="3">
-        <v>500</v>
-      </c>
-      <c r="K24" s="3">
-        <v>300</v>
       </c>
       <c r="L24" s="3">
         <v>500</v>
       </c>
       <c r="M24" s="3">
+        <v>300</v>
+      </c>
+      <c r="N24" s="3">
         <v>500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
+        <v>500</v>
+      </c>
+      <c r="P24" s="3">
         <v>600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1850,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F26" s="3">
         <v>2900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>3000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>2200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>2400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>2000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>1000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>1200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>1200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F27" s="3">
         <v>2900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>3000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>2200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>2400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>2000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>1000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>1200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>1200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,31 +2054,37 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
@@ -1979,15 +2101,15 @@
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>-300</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2000,8 +2122,14 @@
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2258,150 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E32" s="3">
         <v>4100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G32" s="3">
         <v>3100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>3500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>2500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>3300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>2700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>3700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>3700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>3800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>3500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>3000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>2800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>3400</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>2900</v>
-      </c>
-      <c r="R32" s="3">
-        <v>2900</v>
       </c>
       <c r="S32" s="3">
         <v>2900</v>
       </c>
       <c r="T32" s="3">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="U32" s="3">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="V32" s="3">
         <v>2700</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>2500</v>
+      </c>
+      <c r="X32" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F33" s="3">
         <v>2900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>3000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>2200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>2400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>1800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>2000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>1000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>1200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>1200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2462,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F35" s="3">
         <v>2900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>3000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>2200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>2400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>1800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>2000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>1000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>1200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>1200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,75 +2659,83 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>56100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>46900</v>
+      </c>
+      <c r="F41" s="3">
         <v>30800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>24300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>68000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>36500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>38300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>37000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>12100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>18600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>21700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>20900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>23700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>18900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>68800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>20400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>20200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>20800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>24200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>20100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3400</v>
+        <v>4300</v>
       </c>
       <c r="E42" s="3">
         <v>3400</v>
@@ -2564,10 +2744,10 @@
         <v>3400</v>
       </c>
       <c r="G42" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="H42" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="I42" s="3">
         <v>3300</v>
@@ -2576,10 +2756,10 @@
         <v>3300</v>
       </c>
       <c r="K42" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="L42" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="M42" s="3">
         <v>3100</v>
@@ -2588,31 +2768,37 @@
         <v>3100</v>
       </c>
       <c r="O42" s="3">
-        <v>5100</v>
+        <v>3100</v>
       </c>
       <c r="P42" s="3">
-        <v>5100</v>
+        <v>3100</v>
       </c>
       <c r="Q42" s="3">
         <v>5100</v>
       </c>
       <c r="R42" s="3">
+        <v>5100</v>
+      </c>
+      <c r="S42" s="3">
+        <v>5100</v>
+      </c>
+      <c r="T42" s="3">
         <v>4800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>5200</v>
-      </c>
-      <c r="T42" s="3">
-        <v>5300</v>
-      </c>
-      <c r="U42" s="3">
-        <v>4900</v>
       </c>
       <c r="V42" s="3">
         <v>5300</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>4900</v>
+      </c>
+      <c r="X42" s="3">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2673,8 +2859,14 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2927,14 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2797,8 +2995,14 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2859,8 +3063,14 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,25 +3131,31 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F48" s="3">
         <v>7300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>7000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>6200</v>
-      </c>
-      <c r="G48" s="3">
-        <v>6300</v>
-      </c>
-      <c r="H48" s="3">
-        <v>6300</v>
       </c>
       <c r="I48" s="3">
         <v>6300</v>
@@ -2948,31 +3164,31 @@
         <v>6300</v>
       </c>
       <c r="K48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="L48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="M48" s="3">
         <v>6400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>5800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>5300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>5200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>5200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>5300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>5300</v>
-      </c>
-      <c r="R48" s="3">
-        <v>5400</v>
-      </c>
-      <c r="S48" s="3">
-        <v>5500</v>
       </c>
       <c r="T48" s="3">
         <v>5400</v>
@@ -2981,10 +3197,16 @@
         <v>5500</v>
       </c>
       <c r="V48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="W48" s="3">
         <v>5500</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3267,14 @@
       <c r="V49" s="3">
         <v>4100</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>4100</v>
+      </c>
+      <c r="X49" s="3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3403,14 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3471,14 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3539,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>901600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>886100</v>
+      </c>
+      <c r="F54" s="3">
         <v>865900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>833800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>850700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>721600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>696000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>680800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>635600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>626300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>622100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>595200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>586000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>577000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>610900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>539000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>537500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>524500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>513700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>513700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>518300</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,70 +3663,78 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F57" s="3">
         <v>3200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>4200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>5600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>4300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>3300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>3300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2600</v>
-      </c>
-      <c r="M57" s="3">
-        <v>2200</v>
-      </c>
-      <c r="N57" s="3">
-        <v>1600</v>
       </c>
       <c r="O57" s="3">
         <v>2200</v>
       </c>
       <c r="P57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R57" s="3">
         <v>2700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>2000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>2300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>3200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3527,23 +3795,29 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E59" s="3">
         <v>1300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3556,11 +3830,11 @@
       <c r="K59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -3589,8 +3863,14 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3651,8 +3931,14 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3678,10 +3964,10 @@
         <v>5900</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -3713,8 +3999,14 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +4067,14 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>822700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>810600</v>
+      </c>
+      <c r="F66" s="3">
         <v>790200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>760400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>779400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>653400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>628600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>614300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>570900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>562900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>560600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>534700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>525800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>517300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>551200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>478500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>477000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>465200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>455100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>453400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>458800</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4637,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>38500</v>
+      </c>
+      <c r="F72" s="3">
         <v>37500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>35300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>33100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>31600</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>28800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>27500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>27000</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>25900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>25200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>24400</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>23600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>23300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>23100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>22800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>22200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>79000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>75500</v>
+      </c>
+      <c r="F76" s="3">
         <v>75600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>73400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>71200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>68200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>67300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>66500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>64700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>63400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>61500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>60500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>60200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>59700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>59700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>60500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>60400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>59300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>58600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>60300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +5045,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F81" s="3">
         <v>2900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>3000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>2200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>2400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>1800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>2000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>1000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>1200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>1200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,20 +5216,22 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>100</v>
+      </c>
+      <c r="F83" s="3">
         <v>-200</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>5</v>
       </c>
@@ -4846,11 +5244,11 @@
       <c r="J83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -4873,17 +5271,23 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>5</v>
+      <c r="T83" s="3">
+        <v>0</v>
       </c>
       <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W83" s="3">
         <v>100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,20 +5620,26 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F89" s="3">
         <v>2000</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>5</v>
       </c>
@@ -5218,11 +5652,11 @@
       <c r="J89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -5245,17 +5679,23 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>5</v>
+      <c r="T89" s="3">
+        <v>0</v>
       </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W89" s="3">
         <v>1900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,20 +5718,22 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
         <v>300</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>5</v>
       </c>
@@ -5304,11 +5746,11 @@
       <c r="J91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -5331,17 +5773,23 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,20 +5918,26 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-25200</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>5</v>
       </c>
@@ -5490,11 +5950,11 @@
       <c r="J94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -5517,17 +5977,23 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>5</v>
+      <c r="T94" s="3">
+        <v>0</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W94" s="3">
         <v>-2900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5559,10 +6027,10 @@
         <v>-700</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -5607,13 +6075,19 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-600</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,20 +6284,26 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>20300</v>
+      </c>
+      <c r="F100" s="3">
         <v>29700</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>5</v>
       </c>
@@ -5824,11 +6316,11 @@
       <c r="J100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -5851,17 +6343,23 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>5</v>
+      <c r="T100" s="3">
+        <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W100" s="3">
         <v>-1100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,20 +6420,26 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>16100</v>
+      </c>
+      <c r="F102" s="3">
         <v>6600</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>5</v>
       </c>
@@ -5948,11 +6452,11 @@
       <c r="J102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -5975,13 +6479,19 @@
       <c r="S102" s="3">
         <v>0</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>5</v>
+      <c r="T102" s="3">
+        <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W102" s="3">
         <v>-2100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SSBI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SSBI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
   <si>
     <t>SSBI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,172 +665,179 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E8" s="3">
         <v>10100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7600</v>
-      </c>
-      <c r="L8" s="3">
-        <v>7200</v>
       </c>
       <c r="M8" s="3">
         <v>7200</v>
       </c>
       <c r="N8" s="3">
+        <v>7200</v>
+      </c>
+      <c r="O8" s="3">
         <v>6800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6600</v>
-      </c>
-      <c r="P8" s="3">
-        <v>6100</v>
       </c>
       <c r="Q8" s="3">
         <v>6100</v>
       </c>
       <c r="R8" s="3">
+        <v>6100</v>
+      </c>
+      <c r="S8" s="3">
         <v>5700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -897,8 +904,11 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +975,11 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1215,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,67 +1312,68 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>400</v>
-      </c>
-      <c r="V17" s="3">
-        <v>300</v>
       </c>
       <c r="W17" s="3">
         <v>300</v>
@@ -1354,76 +1381,82 @@
       <c r="X17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E18" s="3">
         <v>9000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>8800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>8300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>6700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>6000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>5200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>4400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>4700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>4500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,58 +1481,59 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3500</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-4100</v>
       </c>
       <c r="F20" s="3">
         <v>-4100</v>
       </c>
       <c r="G20" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="H20" s="3">
         <v>-3100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2700</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-3700</v>
       </c>
       <c r="M20" s="3">
         <v>-3700</v>
       </c>
       <c r="N20" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="O20" s="3">
         <v>-3800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3400</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-2900</v>
       </c>
       <c r="T20" s="3">
         <v>-2900</v>
@@ -1508,31 +1542,34 @@
         <v>-2900</v>
       </c>
       <c r="V20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="W20" s="3">
         <v>-2700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E21" s="3">
         <v>5600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4000</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1578,14 +1615,17 @@
       <c r="V21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X21" s="3">
         <v>2100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,76 +1692,82 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E23" s="3">
         <v>5500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4700</v>
-      </c>
-      <c r="F23" s="3">
-        <v>4200</v>
       </c>
       <c r="G23" s="3">
         <v>4200</v>
       </c>
       <c r="H23" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I23" s="3">
         <v>3200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2900</v>
-      </c>
-      <c r="L23" s="3">
-        <v>1700</v>
       </c>
       <c r="M23" s="3">
         <v>1700</v>
       </c>
       <c r="N23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O23" s="3">
         <v>1600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1500</v>
-      </c>
-      <c r="V23" s="3">
-        <v>2000</v>
       </c>
       <c r="W23" s="3">
         <v>2000</v>
       </c>
       <c r="X23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Y23" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1729,67 +1775,70 @@
         <v>1600</v>
       </c>
       <c r="E24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F24" s="3">
         <v>1400</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1200</v>
       </c>
       <c r="G24" s="3">
         <v>1200</v>
       </c>
       <c r="H24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I24" s="3">
         <v>900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1000</v>
-      </c>
-      <c r="J24" s="3">
-        <v>800</v>
       </c>
       <c r="K24" s="3">
         <v>800</v>
       </c>
       <c r="L24" s="3">
+        <v>800</v>
+      </c>
+      <c r="M24" s="3">
         <v>500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
-      </c>
-      <c r="N24" s="3">
-        <v>500</v>
       </c>
       <c r="O24" s="3">
         <v>500</v>
       </c>
       <c r="P24" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q24" s="3">
         <v>600</v>
       </c>
       <c r="R24" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="S24" s="3">
         <v>500</v>
       </c>
       <c r="T24" s="3">
+        <v>500</v>
+      </c>
+      <c r="U24" s="3">
         <v>700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>600</v>
-      </c>
-      <c r="V24" s="3">
-        <v>800</v>
       </c>
       <c r="W24" s="3">
         <v>800</v>
       </c>
       <c r="X24" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y24" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E26" s="3">
         <v>3900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>1500</v>
       </c>
       <c r="P26" s="3">
         <v>1500</v>
       </c>
       <c r="Q26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R26" s="3">
         <v>1700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1000</v>
-      </c>
-      <c r="T26" s="3">
-        <v>900</v>
       </c>
       <c r="U26" s="3">
         <v>900</v>
       </c>
       <c r="V26" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="W26" s="3">
         <v>1200</v>
       </c>
       <c r="X26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Y26" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E27" s="3">
         <v>3900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>1500</v>
       </c>
       <c r="P27" s="3">
         <v>1500</v>
       </c>
       <c r="Q27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R27" s="3">
         <v>1700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1000</v>
-      </c>
-      <c r="T27" s="3">
-        <v>900</v>
       </c>
       <c r="U27" s="3">
         <v>900</v>
       </c>
       <c r="V27" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="W27" s="3">
         <v>1200</v>
       </c>
       <c r="X27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Y27" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2086,8 +2147,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
@@ -2107,12 +2168,12 @@
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
         <v>-300</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,58 +2331,61 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E32" s="3">
         <v>3500</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4100</v>
       </c>
       <c r="F32" s="3">
         <v>4100</v>
       </c>
       <c r="G32" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H32" s="3">
         <v>3100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2700</v>
-      </c>
-      <c r="L32" s="3">
-        <v>3700</v>
       </c>
       <c r="M32" s="3">
         <v>3700</v>
       </c>
       <c r="N32" s="3">
+        <v>3700</v>
+      </c>
+      <c r="O32" s="3">
         <v>3800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3400</v>
-      </c>
-      <c r="S32" s="3">
-        <v>2900</v>
       </c>
       <c r="T32" s="3">
         <v>2900</v>
@@ -2324,84 +2394,90 @@
         <v>2900</v>
       </c>
       <c r="V32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="W32" s="3">
         <v>2700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E33" s="3">
         <v>3900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>1500</v>
       </c>
       <c r="P33" s="3">
         <v>1500</v>
       </c>
       <c r="Q33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R33" s="3">
         <v>1700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1000</v>
-      </c>
-      <c r="T33" s="3">
-        <v>900</v>
       </c>
       <c r="U33" s="3">
         <v>900</v>
       </c>
       <c r="V33" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="W33" s="3">
         <v>1200</v>
       </c>
       <c r="X33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Y33" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E35" s="3">
         <v>3900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>1500</v>
       </c>
       <c r="P35" s="3">
         <v>1500</v>
       </c>
       <c r="Q35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R35" s="3">
         <v>1700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1000</v>
-      </c>
-      <c r="T35" s="3">
-        <v>900</v>
       </c>
       <c r="U35" s="3">
         <v>900</v>
       </c>
       <c r="V35" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="W35" s="3">
         <v>1200</v>
       </c>
       <c r="X35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Y35" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2747,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E41" s="3">
         <v>56100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>46900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>30800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>24300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>68000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>36500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>38300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>37000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>18600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>21700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>20900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>23700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>18900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>68800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>20400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>20200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>20800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>24200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>20100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2738,7 +2828,7 @@
         <v>4300</v>
       </c>
       <c r="E42" s="3">
-        <v>3400</v>
+        <v>4300</v>
       </c>
       <c r="F42" s="3">
         <v>3400</v>
@@ -2750,7 +2840,7 @@
         <v>3400</v>
       </c>
       <c r="I42" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="J42" s="3">
         <v>3300</v>
@@ -2762,7 +2852,7 @@
         <v>3300</v>
       </c>
       <c r="M42" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="N42" s="3">
         <v>3100</v>
@@ -2774,7 +2864,7 @@
         <v>3100</v>
       </c>
       <c r="Q42" s="3">
-        <v>5100</v>
+        <v>3100</v>
       </c>
       <c r="R42" s="3">
         <v>5100</v>
@@ -2783,22 +2873,25 @@
         <v>5100</v>
       </c>
       <c r="T42" s="3">
+        <v>5100</v>
+      </c>
+      <c r="U42" s="3">
         <v>4800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>5200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>5300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>4900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +2958,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3029,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3001,8 +3100,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3069,8 +3171,11 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,28 +3242,31 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="E48" s="3">
         <v>7200</v>
       </c>
       <c r="F48" s="3">
+        <v>7200</v>
+      </c>
+      <c r="G48" s="3">
         <v>7300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6200</v>
-      </c>
-      <c r="I48" s="3">
-        <v>6300</v>
       </c>
       <c r="J48" s="3">
         <v>6300</v>
@@ -3170,43 +3278,46 @@
         <v>6300</v>
       </c>
       <c r="M48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="N48" s="3">
         <v>6400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5300</v>
-      </c>
-      <c r="P48" s="3">
-        <v>5200</v>
       </c>
       <c r="Q48" s="3">
         <v>5200</v>
       </c>
       <c r="R48" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="S48" s="3">
         <v>5300</v>
       </c>
       <c r="T48" s="3">
+        <v>5300</v>
+      </c>
+      <c r="U48" s="3">
         <v>5400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5400</v>
-      </c>
-      <c r="W48" s="3">
-        <v>5500</v>
       </c>
       <c r="X48" s="3">
         <v>5500</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3">
         <v>4100</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3597,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>922600</v>
+      </c>
+      <c r="E54" s="3">
         <v>901600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>886100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>865900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>833800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>850700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>721600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>696000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>680800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>635600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>626300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>622100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>595200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>586000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>577000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>610900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>539000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>537500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>524500</v>
-      </c>
-      <c r="V54" s="3">
-        <v>513700</v>
       </c>
       <c r="W54" s="3">
         <v>513700</v>
       </c>
       <c r="X54" s="3">
+        <v>513700</v>
+      </c>
+      <c r="Y54" s="3">
         <v>518300</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,76 +3795,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E57" s="3">
         <v>2900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>3300</v>
       </c>
       <c r="K57" s="3">
         <v>3300</v>
       </c>
       <c r="L57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="M57" s="3">
         <v>3500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,26 +3935,29 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E59" s="3">
         <v>1400</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1300</v>
       </c>
       <c r="F59" s="3">
         <v>1300</v>
       </c>
       <c r="G59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3836,8 +3973,8 @@
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -3869,8 +4006,11 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3937,8 +4077,11 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3970,7 +4113,7 @@
         <v>5900</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
@@ -4005,8 +4148,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>840600</v>
+      </c>
+      <c r="E66" s="3">
         <v>822700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>810600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>790200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>760400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>779400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>653400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>628600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>614300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>570900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>562900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>560600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>534700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>525800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>517300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>551200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>478500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>477000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>465200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>455100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>453400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>458800</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>44800</v>
+      </c>
+      <c r="E72" s="3">
         <v>41700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>38500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>37500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>35300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>33100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>31600</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>28800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>27500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>27000</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>25900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>25200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>24400</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3">
         <v>23600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>23300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>23100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>22800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>22200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E76" s="3">
         <v>79000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>75500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>75600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>73400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>71200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>68200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>67300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>66500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>64700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>63400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>61500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>60500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>60200</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>59700</v>
       </c>
       <c r="R76" s="3">
         <v>59700</v>
       </c>
       <c r="S76" s="3">
+        <v>59700</v>
+      </c>
+      <c r="T76" s="3">
         <v>60500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>60400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>59300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>58600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>60300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E81" s="3">
         <v>3900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>1500</v>
       </c>
       <c r="P81" s="3">
         <v>1500</v>
       </c>
       <c r="Q81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R81" s="3">
         <v>1700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1000</v>
-      </c>
-      <c r="T81" s="3">
-        <v>900</v>
       </c>
       <c r="U81" s="3">
         <v>900</v>
       </c>
       <c r="V81" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="W81" s="3">
         <v>1200</v>
       </c>
       <c r="X81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Y81" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5230,11 +5429,11 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
+        <v>100</v>
+      </c>
+      <c r="G83" s="3">
         <v>-200</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>5</v>
       </c>
@@ -5250,8 +5449,8 @@
       <c r="L83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -5277,17 +5476,20 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W83" s="3">
-        <v>100</v>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,23 +5840,26 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2000</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>5</v>
       </c>
@@ -5658,8 +5875,8 @@
       <c r="L89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
+      <c r="M89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -5685,17 +5902,20 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X89" s="3">
         <v>1900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5940,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5729,14 +5950,14 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>300</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>5</v>
       </c>
@@ -5752,8 +5973,8 @@
       <c r="L91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -5779,17 +6000,20 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W91" s="3">
-        <v>0</v>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,23 +6151,26 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-25200</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>5</v>
       </c>
@@ -5956,8 +6186,8 @@
       <c r="L94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -5983,17 +6213,20 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W94" s="3">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X94" s="3">
         <v>-2900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6033,7 +6267,7 @@
         <v>-700</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -6081,13 +6315,16 @@
         <v>0</v>
       </c>
       <c r="W96" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="X96" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,23 +6533,26 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E100" s="3">
         <v>10900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>20300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>29700</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>5</v>
       </c>
@@ -6322,8 +6568,8 @@
       <c r="L100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -6349,17 +6595,20 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X100" s="3">
         <v>-1100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,23 +6675,26 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="E102" s="3">
         <v>9200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>16100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>6600</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>5</v>
       </c>
@@ -6458,8 +6710,8 @@
       <c r="L102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
+      <c r="M102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -6485,13 +6737,16 @@
       <c r="U102" s="3">
         <v>0</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X102" s="3">
         <v>-2100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SSBI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SSBI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="92">
   <si>
     <t>SSBI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,185 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E8" s="3">
         <v>10600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>9200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7600</v>
-      </c>
-      <c r="M8" s="3">
-        <v>7200</v>
       </c>
       <c r="N8" s="3">
         <v>7200</v>
       </c>
       <c r="O8" s="3">
+        <v>7200</v>
+      </c>
+      <c r="P8" s="3">
         <v>6800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6600</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>6100</v>
       </c>
       <c r="R8" s="3">
         <v>6100</v>
       </c>
       <c r="S8" s="3">
+        <v>6100</v>
+      </c>
+      <c r="T8" s="3">
         <v>5700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -907,8 +913,11 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1218,8 +1237,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,70 +1338,71 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>400</v>
-      </c>
-      <c r="W17" s="3">
-        <v>300</v>
       </c>
       <c r="X17" s="3">
         <v>300</v>
@@ -1384,79 +1410,85 @@
       <c r="Y17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E18" s="3">
         <v>9600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>9000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>8800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>8300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>6700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>5100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>5200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>4500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>4400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>4700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>4500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,61 +1514,62 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3500</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-4100</v>
       </c>
       <c r="G20" s="3">
         <v>-4100</v>
       </c>
       <c r="H20" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="I20" s="3">
         <v>-3100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2700</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-3700</v>
       </c>
       <c r="N20" s="3">
         <v>-3700</v>
       </c>
       <c r="O20" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="P20" s="3">
         <v>-3800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3400</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-2900</v>
       </c>
       <c r="U20" s="3">
         <v>-2900</v>
@@ -1545,37 +1578,40 @@
         <v>-2900</v>
       </c>
       <c r="W20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="X20" s="3">
         <v>-2700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
         <v>5500</v>
       </c>
-      <c r="E21" s="3">
-        <v>5600</v>
-      </c>
       <c r="F21" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G21" s="3">
+        <v>4400</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="3">
         <v>4800</v>
       </c>
-      <c r="G21" s="3">
-        <v>4000</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1618,14 +1654,17 @@
       <c r="W21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y21" s="3">
         <v>2100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1695,79 +1734,85 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E23" s="3">
         <v>5400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4700</v>
-      </c>
-      <c r="G23" s="3">
-        <v>4200</v>
       </c>
       <c r="H23" s="3">
         <v>4200</v>
       </c>
       <c r="I23" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J23" s="3">
         <v>3200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2900</v>
-      </c>
-      <c r="M23" s="3">
-        <v>1700</v>
       </c>
       <c r="N23" s="3">
         <v>1700</v>
       </c>
       <c r="O23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P23" s="3">
         <v>1600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1500</v>
-      </c>
-      <c r="W23" s="3">
-        <v>2000</v>
       </c>
       <c r="X23" s="3">
         <v>2000</v>
       </c>
       <c r="Y23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Z23" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1778,67 +1823,70 @@
         <v>1600</v>
       </c>
       <c r="F24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G24" s="3">
         <v>1400</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1200</v>
       </c>
       <c r="H24" s="3">
         <v>1200</v>
       </c>
       <c r="I24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J24" s="3">
         <v>900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1000</v>
-      </c>
-      <c r="K24" s="3">
-        <v>800</v>
       </c>
       <c r="L24" s="3">
         <v>800</v>
       </c>
       <c r="M24" s="3">
+        <v>800</v>
+      </c>
+      <c r="N24" s="3">
         <v>500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
-      </c>
-      <c r="O24" s="3">
-        <v>500</v>
       </c>
       <c r="P24" s="3">
         <v>500</v>
       </c>
       <c r="Q24" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="R24" s="3">
         <v>600</v>
       </c>
       <c r="S24" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T24" s="3">
         <v>500</v>
       </c>
       <c r="U24" s="3">
+        <v>500</v>
+      </c>
+      <c r="V24" s="3">
         <v>700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>600</v>
-      </c>
-      <c r="W24" s="3">
-        <v>800</v>
       </c>
       <c r="X24" s="3">
         <v>800</v>
       </c>
       <c r="Y24" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z24" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E26" s="3">
         <v>3800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1100</v>
-      </c>
-      <c r="P26" s="3">
-        <v>1500</v>
       </c>
       <c r="Q26" s="3">
         <v>1500</v>
       </c>
       <c r="R26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S26" s="3">
         <v>1700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1000</v>
-      </c>
-      <c r="U26" s="3">
-        <v>900</v>
       </c>
       <c r="V26" s="3">
         <v>900</v>
       </c>
       <c r="W26" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="X26" s="3">
         <v>1200</v>
       </c>
       <c r="Y26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Z26" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E27" s="3">
         <v>3800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1100</v>
-      </c>
-      <c r="P27" s="3">
-        <v>1500</v>
       </c>
       <c r="Q27" s="3">
         <v>1500</v>
       </c>
       <c r="R27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S27" s="3">
         <v>1700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1000</v>
-      </c>
-      <c r="U27" s="3">
-        <v>900</v>
       </c>
       <c r="V27" s="3">
         <v>900</v>
       </c>
       <c r="W27" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="X27" s="3">
         <v>1200</v>
       </c>
       <c r="Y27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Z27" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2150,8 +2210,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
@@ -2171,12 +2231,12 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
         <v>-300</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2192,8 +2252,11 @@
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,61 +2400,64 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E32" s="3">
         <v>4200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3500</v>
-      </c>
-      <c r="F32" s="3">
-        <v>4100</v>
       </c>
       <c r="G32" s="3">
         <v>4100</v>
       </c>
       <c r="H32" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I32" s="3">
         <v>3100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2700</v>
-      </c>
-      <c r="M32" s="3">
-        <v>3700</v>
       </c>
       <c r="N32" s="3">
         <v>3700</v>
       </c>
       <c r="O32" s="3">
+        <v>3700</v>
+      </c>
+      <c r="P32" s="3">
         <v>3800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3400</v>
-      </c>
-      <c r="T32" s="3">
-        <v>2900</v>
       </c>
       <c r="U32" s="3">
         <v>2900</v>
@@ -2397,87 +2466,93 @@
         <v>2900</v>
       </c>
       <c r="W32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="X32" s="3">
         <v>2700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>2500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E33" s="3">
         <v>3800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1100</v>
-      </c>
-      <c r="P33" s="3">
-        <v>1500</v>
       </c>
       <c r="Q33" s="3">
         <v>1500</v>
       </c>
       <c r="R33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S33" s="3">
         <v>1700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1000</v>
-      </c>
-      <c r="U33" s="3">
-        <v>900</v>
       </c>
       <c r="V33" s="3">
         <v>900</v>
       </c>
       <c r="W33" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="X33" s="3">
         <v>1200</v>
       </c>
       <c r="Y33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Z33" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E35" s="3">
         <v>3800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1100</v>
-      </c>
-      <c r="P35" s="3">
-        <v>1500</v>
       </c>
       <c r="Q35" s="3">
         <v>1500</v>
       </c>
       <c r="R35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S35" s="3">
         <v>1700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1000</v>
-      </c>
-      <c r="U35" s="3">
-        <v>900</v>
       </c>
       <c r="V35" s="3">
         <v>900</v>
       </c>
       <c r="W35" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="X35" s="3">
         <v>1200</v>
       </c>
       <c r="Y35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Z35" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,79 +2833,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>40700</v>
+      </c>
+      <c r="E41" s="3">
         <v>37800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>56100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>46900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>30800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>24300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>68000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>36500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>38300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>37000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>18600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>21700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>20900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>23700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>18900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>68800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>20400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>20200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>20800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>24200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>20100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2831,7 +2920,7 @@
         <v>4300</v>
       </c>
       <c r="F42" s="3">
-        <v>3400</v>
+        <v>4300</v>
       </c>
       <c r="G42" s="3">
         <v>3400</v>
@@ -2843,7 +2932,7 @@
         <v>3400</v>
       </c>
       <c r="J42" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="K42" s="3">
         <v>3300</v>
@@ -2855,7 +2944,7 @@
         <v>3300</v>
       </c>
       <c r="N42" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="O42" s="3">
         <v>3100</v>
@@ -2867,7 +2956,7 @@
         <v>3100</v>
       </c>
       <c r="R42" s="3">
-        <v>5100</v>
+        <v>3100</v>
       </c>
       <c r="S42" s="3">
         <v>5100</v>
@@ -2876,22 +2965,25 @@
         <v>5100</v>
       </c>
       <c r="U42" s="3">
+        <v>5100</v>
+      </c>
+      <c r="V42" s="3">
         <v>4800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>5200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>5300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>4900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2961,8 +3053,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,8 +3127,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3103,8 +3201,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3174,8 +3275,11 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,31 +3349,34 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E48" s="3">
         <v>7000</v>
-      </c>
-      <c r="E48" s="3">
-        <v>7200</v>
       </c>
       <c r="F48" s="3">
         <v>7200</v>
       </c>
       <c r="G48" s="3">
+        <v>7200</v>
+      </c>
+      <c r="H48" s="3">
         <v>7300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6200</v>
-      </c>
-      <c r="J48" s="3">
-        <v>6300</v>
       </c>
       <c r="K48" s="3">
         <v>6300</v>
@@ -3281,43 +3388,46 @@
         <v>6300</v>
       </c>
       <c r="N48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="O48" s="3">
         <v>6400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5300</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>5200</v>
       </c>
       <c r="R48" s="3">
         <v>5200</v>
       </c>
       <c r="S48" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="T48" s="3">
         <v>5300</v>
       </c>
       <c r="U48" s="3">
+        <v>5300</v>
+      </c>
+      <c r="V48" s="3">
         <v>5400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5400</v>
-      </c>
-      <c r="X48" s="3">
-        <v>5500</v>
       </c>
       <c r="Y48" s="3">
         <v>5500</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3387,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>4100</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3600,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>958100</v>
+      </c>
+      <c r="E54" s="3">
         <v>922600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>901600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>886100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>865900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>833800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>850700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>721600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>696000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>680800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>635600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>626300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>622100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>595200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>586000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>577000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>610900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>539000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>537500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>524500</v>
-      </c>
-      <c r="W54" s="3">
-        <v>513700</v>
       </c>
       <c r="X54" s="3">
         <v>513700</v>
       </c>
       <c r="Y54" s="3">
+        <v>513700</v>
+      </c>
+      <c r="Z54" s="3">
         <v>518300</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,79 +3925,83 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E57" s="3">
         <v>4400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4300</v>
-      </c>
-      <c r="K57" s="3">
-        <v>3300</v>
       </c>
       <c r="L57" s="3">
         <v>3300</v>
       </c>
       <c r="M57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="N57" s="3">
         <v>3500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3938,29 +4071,32 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="3">
         <v>1300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1400</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1300</v>
       </c>
       <c r="G59" s="3">
         <v>1300</v>
       </c>
       <c r="H59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3976,8 +4112,8 @@
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -4009,8 +4145,11 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4080,8 +4219,11 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4116,7 +4258,7 @@
         <v>5900</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -4151,8 +4293,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4222,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>873800</v>
+      </c>
+      <c r="E66" s="3">
         <v>840600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>822700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>810600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>790200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>760400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>779400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>653400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>628600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>614300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>570900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>562900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>560600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>534700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>525800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>517300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>551200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>478500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>477000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>465200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>455100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>453400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>458800</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="3">
         <v>44800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>41700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>38500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>37500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>35300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>33100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>31600</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>28800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>27500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>27000</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>25900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>25200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>24400</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3">
         <v>23600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>23300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>23100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>22800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>22200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>84300</v>
+      </c>
+      <c r="E76" s="3">
         <v>82000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>79000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>75500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>75600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>73400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>71200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>68200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>67300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>66500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>64700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>63400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>61500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>60500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>60200</v>
-      </c>
-      <c r="R76" s="3">
-        <v>59700</v>
       </c>
       <c r="S76" s="3">
         <v>59700</v>
       </c>
       <c r="T76" s="3">
+        <v>59700</v>
+      </c>
+      <c r="U76" s="3">
         <v>60500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>60400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>59300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>58600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>60300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E81" s="3">
         <v>3800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1100</v>
-      </c>
-      <c r="P81" s="3">
-        <v>1500</v>
       </c>
       <c r="Q81" s="3">
         <v>1500</v>
       </c>
       <c r="R81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S81" s="3">
         <v>1700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1000</v>
-      </c>
-      <c r="U81" s="3">
-        <v>900</v>
       </c>
       <c r="V81" s="3">
         <v>900</v>
       </c>
       <c r="W81" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="X81" s="3">
         <v>1200</v>
       </c>
       <c r="Y81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Z81" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,28 +5614,29 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>100</v>
+      <c r="D83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G83" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
+      <c r="I83" s="3">
+        <v>600</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>5</v>
@@ -5452,8 +5650,8 @@
       <c r="M83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -5479,17 +5677,20 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X83" s="3">
-        <v>100</v>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,28 +6056,31 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="3">
         <v>3700</v>
       </c>
-      <c r="E89" s="3">
-        <v>-1400</v>
-      </c>
       <c r="F89" s="3">
-        <v>3100</v>
+        <v>1700</v>
       </c>
       <c r="G89" s="3">
-        <v>2000</v>
+        <v>-600</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
+      <c r="I89" s="3">
+        <v>1700</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>5</v>
@@ -5878,8 +6094,8 @@
       <c r="M89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
+      <c r="N89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -5905,17 +6121,20 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X89" s="3">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y89" s="3">
         <v>1900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,13 +6160,14 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -5956,13 +6176,13 @@
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
+      <c r="I91" s="3">
+        <v>-400</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>5</v>
@@ -5976,8 +6196,8 @@
       <c r="M91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -6003,17 +6223,20 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X91" s="3">
-        <v>0</v>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,28 +6380,31 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="3">
         <v>-38000</v>
       </c>
-      <c r="E94" s="3">
-        <v>-300</v>
-      </c>
       <c r="F94" s="3">
-        <v>-7300</v>
+        <v>-7600</v>
       </c>
       <c r="G94" s="3">
-        <v>-25200</v>
+        <v>161400</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
+      <c r="I94" s="3">
+        <v>-143500</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>5</v>
@@ -6189,8 +6418,8 @@
       <c r="M94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -6216,17 +6445,20 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X94" s="3">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,28 +6484,29 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-700</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
         <v>-700</v>
       </c>
       <c r="F96" s="3">
-        <v>-700</v>
+        <v>-1500</v>
       </c>
       <c r="G96" s="3">
-        <v>-700</v>
+        <v>2200</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-2200</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -6318,13 +6551,16 @@
         <v>0</v>
       </c>
       <c r="X96" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="Y96" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,28 +6778,31 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="3">
         <v>15900</v>
       </c>
-      <c r="E100" s="3">
-        <v>10900</v>
-      </c>
       <c r="F100" s="3">
-        <v>20300</v>
+        <v>31200</v>
       </c>
       <c r="G100" s="3">
-        <v>29700</v>
+        <v>-137100</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
+      <c r="I100" s="3">
+        <v>127700</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>5</v>
@@ -6571,8 +6816,8 @@
       <c r="M100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -6598,17 +6843,20 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X100" s="3">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,28 +6926,31 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" s="3">
         <v>-18400</v>
       </c>
-      <c r="E102" s="3">
-        <v>9200</v>
-      </c>
       <c r="F102" s="3">
-        <v>16100</v>
+        <v>25300</v>
       </c>
       <c r="G102" s="3">
-        <v>6600</v>
+        <v>23600</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
+      <c r="I102" s="3">
+        <v>-14000</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>5</v>
@@ -6713,8 +6964,8 @@
       <c r="M102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
+      <c r="N102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
@@ -6740,13 +6991,16 @@
       <c r="V102" s="3">
         <v>0</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X102" s="3">
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SSBI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SSBI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="92">
   <si>
     <t>SSBI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,115 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -777,73 +781,76 @@
         <v>10900</v>
       </c>
       <c r="E8" s="3">
+        <v>10900</v>
+      </c>
+      <c r="F8" s="3">
         <v>10600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7600</v>
-      </c>
-      <c r="N8" s="3">
-        <v>7200</v>
       </c>
       <c r="O8" s="3">
         <v>7200</v>
       </c>
       <c r="P8" s="3">
+        <v>7200</v>
+      </c>
+      <c r="Q8" s="3">
         <v>6800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6600</v>
-      </c>
-      <c r="R8" s="3">
-        <v>6100</v>
       </c>
       <c r="S8" s="3">
         <v>6100</v>
       </c>
       <c r="T8" s="3">
+        <v>6100</v>
+      </c>
+      <c r="U8" s="3">
         <v>5700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -916,8 +923,11 @@
       <c r="Z9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,73 +1365,74 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E17" s="3">
         <v>2000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>400</v>
-      </c>
-      <c r="X17" s="3">
-        <v>300</v>
       </c>
       <c r="Y17" s="3">
         <v>300</v>
@@ -1413,82 +1440,88 @@
       <c r="Z17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E18" s="3">
         <v>8900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>9600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>9000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>8800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>8300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>6700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>5500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>5100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>5200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>4400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>4500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>4400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>4700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>4500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,64 +1548,65 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-4200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3500</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-4100</v>
       </c>
       <c r="H20" s="3">
         <v>-4100</v>
       </c>
       <c r="I20" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="J20" s="3">
         <v>-3100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2700</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-3700</v>
       </c>
       <c r="O20" s="3">
         <v>-3700</v>
       </c>
       <c r="P20" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-3400</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-2900</v>
       </c>
       <c r="V20" s="3">
         <v>-2900</v>
@@ -1581,40 +1615,43 @@
         <v>-2900</v>
       </c>
       <c r="X20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="3">
-        <v>5500</v>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F21" s="3">
         <v>5700</v>
       </c>
       <c r="G21" s="3">
-        <v>4400</v>
+        <v>5600</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I21" s="3">
+        <v>4600</v>
+      </c>
+      <c r="J21" s="3">
         <v>4800</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1657,14 +1694,17 @@
       <c r="X21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="3">
         <v>2100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1737,87 +1777,93 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E23" s="3">
         <v>5200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>5500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4700</v>
-      </c>
-      <c r="H23" s="3">
-        <v>4200</v>
       </c>
       <c r="I23" s="3">
         <v>4200</v>
       </c>
       <c r="J23" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K23" s="3">
         <v>3200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2900</v>
-      </c>
-      <c r="N23" s="3">
-        <v>1700</v>
       </c>
       <c r="O23" s="3">
         <v>1700</v>
       </c>
       <c r="P23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q23" s="3">
         <v>1600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1500</v>
-      </c>
-      <c r="X23" s="3">
-        <v>2000</v>
       </c>
       <c r="Y23" s="3">
         <v>2000</v>
       </c>
       <c r="Z23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AA23" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E24" s="3">
         <v>1600</v>
@@ -1826,67 +1872,70 @@
         <v>1600</v>
       </c>
       <c r="G24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H24" s="3">
         <v>1400</v>
-      </c>
-      <c r="H24" s="3">
-        <v>1200</v>
       </c>
       <c r="I24" s="3">
         <v>1200</v>
       </c>
       <c r="J24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K24" s="3">
         <v>900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1000</v>
-      </c>
-      <c r="L24" s="3">
-        <v>800</v>
       </c>
       <c r="M24" s="3">
         <v>800</v>
       </c>
       <c r="N24" s="3">
+        <v>800</v>
+      </c>
+      <c r="O24" s="3">
         <v>500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
-      </c>
-      <c r="P24" s="3">
-        <v>500</v>
       </c>
       <c r="Q24" s="3">
         <v>500</v>
       </c>
       <c r="R24" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="S24" s="3">
         <v>600</v>
       </c>
       <c r="T24" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="U24" s="3">
         <v>500</v>
       </c>
       <c r="V24" s="3">
+        <v>500</v>
+      </c>
+      <c r="W24" s="3">
         <v>700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>600</v>
-      </c>
-      <c r="X24" s="3">
-        <v>800</v>
       </c>
       <c r="Y24" s="3">
         <v>800</v>
       </c>
       <c r="Z24" s="3">
+        <v>800</v>
+      </c>
+      <c r="AA24" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E26" s="3">
         <v>3700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>1500</v>
       </c>
       <c r="R26" s="3">
         <v>1500</v>
       </c>
       <c r="S26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T26" s="3">
         <v>1700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1000</v>
-      </c>
-      <c r="V26" s="3">
-        <v>900</v>
       </c>
       <c r="W26" s="3">
         <v>900</v>
       </c>
       <c r="X26" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="Y26" s="3">
         <v>1200</v>
       </c>
       <c r="Z26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AA26" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E27" s="3">
         <v>3700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>1500</v>
       </c>
       <c r="R27" s="3">
         <v>1500</v>
       </c>
       <c r="S27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T27" s="3">
         <v>1700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1000</v>
-      </c>
-      <c r="V27" s="3">
-        <v>900</v>
       </c>
       <c r="W27" s="3">
         <v>900</v>
       </c>
       <c r="X27" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="Y27" s="3">
         <v>1200</v>
       </c>
       <c r="Z27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AA27" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2213,8 +2274,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
@@ -2234,12 +2295,12 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3">
         <v>-300</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,64 +2470,67 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E32" s="3">
         <v>3700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>4200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3500</v>
-      </c>
-      <c r="G32" s="3">
-        <v>4100</v>
       </c>
       <c r="H32" s="3">
         <v>4100</v>
       </c>
       <c r="I32" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J32" s="3">
         <v>3100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2700</v>
-      </c>
-      <c r="N32" s="3">
-        <v>3700</v>
       </c>
       <c r="O32" s="3">
         <v>3700</v>
       </c>
       <c r="P32" s="3">
+        <v>3700</v>
+      </c>
+      <c r="Q32" s="3">
         <v>3800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>3400</v>
-      </c>
-      <c r="U32" s="3">
-        <v>2900</v>
       </c>
       <c r="V32" s="3">
         <v>2900</v>
@@ -2469,90 +2539,96 @@
         <v>2900</v>
       </c>
       <c r="X32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Y32" s="3">
         <v>2700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>2500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E33" s="3">
         <v>3700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>1500</v>
       </c>
       <c r="R33" s="3">
         <v>1500</v>
       </c>
       <c r="S33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T33" s="3">
         <v>1700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1000</v>
-      </c>
-      <c r="V33" s="3">
-        <v>900</v>
       </c>
       <c r="W33" s="3">
         <v>900</v>
       </c>
       <c r="X33" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="Y33" s="3">
         <v>1200</v>
       </c>
       <c r="Z33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AA33" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E35" s="3">
         <v>3700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>1500</v>
       </c>
       <c r="R35" s="3">
         <v>1500</v>
       </c>
       <c r="S35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T35" s="3">
         <v>1700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1000</v>
-      </c>
-      <c r="V35" s="3">
-        <v>900</v>
       </c>
       <c r="W35" s="3">
         <v>900</v>
       </c>
       <c r="X35" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="Y35" s="3">
         <v>1200</v>
       </c>
       <c r="Z35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AA35" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,87 +2920,91 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>65900</v>
+      </c>
+      <c r="E41" s="3">
         <v>40700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>37800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>56100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>46900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>30800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>24300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>68000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>36500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>38300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>37000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>12100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>18600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>21700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>20900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>23700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>18900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>68800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>20400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>20200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>20800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>24200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>20100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4300</v>
+        <v>13500</v>
       </c>
       <c r="E42" s="3">
         <v>4300</v>
@@ -2923,7 +3013,7 @@
         <v>4300</v>
       </c>
       <c r="G42" s="3">
-        <v>3400</v>
+        <v>4300</v>
       </c>
       <c r="H42" s="3">
         <v>3400</v>
@@ -2935,7 +3025,7 @@
         <v>3400</v>
       </c>
       <c r="K42" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="L42" s="3">
         <v>3300</v>
@@ -2947,7 +3037,7 @@
         <v>3300</v>
       </c>
       <c r="O42" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="P42" s="3">
         <v>3100</v>
@@ -2959,7 +3049,7 @@
         <v>3100</v>
       </c>
       <c r="S42" s="3">
-        <v>5100</v>
+        <v>3100</v>
       </c>
       <c r="T42" s="3">
         <v>5100</v>
@@ -2968,22 +3058,25 @@
         <v>5100</v>
       </c>
       <c r="V42" s="3">
+        <v>5100</v>
+      </c>
+      <c r="W42" s="3">
         <v>4800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>5200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>5300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>4900</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3056,8 +3149,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,8 +3226,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3204,8 +3303,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3278,8 +3380,11 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,34 +3457,37 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E48" s="3">
         <v>5700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7000</v>
-      </c>
-      <c r="F48" s="3">
-        <v>7200</v>
       </c>
       <c r="G48" s="3">
         <v>7200</v>
       </c>
       <c r="H48" s="3">
+        <v>7200</v>
+      </c>
+      <c r="I48" s="3">
         <v>7300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6200</v>
-      </c>
-      <c r="K48" s="3">
-        <v>6300</v>
       </c>
       <c r="L48" s="3">
         <v>6300</v>
@@ -3391,43 +3499,46 @@
         <v>6300</v>
       </c>
       <c r="O48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="P48" s="3">
         <v>6400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5300</v>
-      </c>
-      <c r="R48" s="3">
-        <v>5200</v>
       </c>
       <c r="S48" s="3">
         <v>5200</v>
       </c>
       <c r="T48" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="U48" s="3">
         <v>5300</v>
       </c>
       <c r="V48" s="3">
+        <v>5300</v>
+      </c>
+      <c r="W48" s="3">
         <v>5400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5400</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>5500</v>
       </c>
       <c r="Z48" s="3">
         <v>5500</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>4100</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>981700</v>
+      </c>
+      <c r="E54" s="3">
         <v>958100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>922600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>901600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>886100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>865900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>833800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>850700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>721600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>696000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>680800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>635600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>626300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>622100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>595200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>586000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>577000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>610900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>539000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>537500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>524500</v>
-      </c>
-      <c r="X54" s="3">
-        <v>513700</v>
       </c>
       <c r="Y54" s="3">
         <v>513700</v>
       </c>
       <c r="Z54" s="3">
+        <v>513700</v>
+      </c>
+      <c r="AA54" s="3">
         <v>518300</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,82 +4056,86 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E57" s="3">
         <v>7800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4300</v>
-      </c>
-      <c r="L57" s="3">
-        <v>3300</v>
       </c>
       <c r="M57" s="3">
         <v>3300</v>
       </c>
       <c r="N57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="O57" s="3">
         <v>3500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4074,32 +4208,35 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3">
         <v>1300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1400</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1300</v>
       </c>
       <c r="H59" s="3">
         <v>1300</v>
       </c>
       <c r="I59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4115,8 +4252,8 @@
       <c r="O59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="P59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -4148,8 +4285,11 @@
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4222,8 +4362,11 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4261,7 +4404,7 @@
         <v>5900</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -4296,8 +4439,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>898000</v>
+      </c>
+      <c r="E66" s="3">
         <v>873800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>840600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>822700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>810600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>790200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>760400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>779400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>653400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>628600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>614300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>570900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>562900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>560600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>534700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>525800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>517300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>551200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>478500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>477000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>465200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>455100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>453400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>458800</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="3">
+      <c r="D72" s="3">
+        <v>50800</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="3">
         <v>44800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>41700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>38500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>37500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>35300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>33100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>31600</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>28800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>27500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>27000</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>25900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>25200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>24400</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V72" s="3">
         <v>23600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>23300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>23100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>22800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>22200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>83700</v>
+      </c>
+      <c r="E76" s="3">
         <v>84300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>82000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>79000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>75500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>75600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>73400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>71200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>68200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>67300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>66500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>64700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>63400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>61500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>60500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>60200</v>
-      </c>
-      <c r="S76" s="3">
-        <v>59700</v>
       </c>
       <c r="T76" s="3">
         <v>59700</v>
       </c>
       <c r="U76" s="3">
+        <v>59700</v>
+      </c>
+      <c r="V76" s="3">
         <v>60500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>60400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>59300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>58600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>60300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E81" s="3">
         <v>3700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>1500</v>
       </c>
       <c r="R81" s="3">
         <v>1500</v>
       </c>
       <c r="S81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T81" s="3">
         <v>1700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1000</v>
-      </c>
-      <c r="V81" s="3">
-        <v>900</v>
       </c>
       <c r="W81" s="3">
         <v>900</v>
       </c>
       <c r="X81" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="Y81" s="3">
         <v>1200</v>
       </c>
       <c r="Z81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AA81" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,32 +5813,33 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="3">
+        <v>300</v>
+      </c>
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="F83" s="3">
-        <v>200</v>
-      </c>
-      <c r="G83" s="3">
-        <v>-300</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I83" s="3">
+        <v>400</v>
+      </c>
+      <c r="J83" s="3">
         <v>600</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
       </c>
@@ -5653,8 +5852,8 @@
       <c r="N83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -5680,17 +5879,20 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>100</v>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,32 +6273,35 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I89" s="3">
         <v>3700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="J89" s="3">
         <v>1700</v>
       </c>
-      <c r="G89" s="3">
-        <v>-600</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I89" s="3">
-        <v>1700</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>5</v>
       </c>
@@ -6097,8 +6314,8 @@
       <c r="N89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
+      <c r="O89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -6124,17 +6341,20 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y89" s="3">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z89" s="3">
         <v>1900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,32 +6381,33 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>5</v>
       </c>
@@ -6199,8 +6420,8 @@
       <c r="N91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -6226,17 +6447,20 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>0</v>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,32 +6610,35 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E94" s="3">
-        <v>-38000</v>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F94" s="3">
-        <v>-7600</v>
+        <v>-45500</v>
       </c>
       <c r="G94" s="3">
-        <v>161400</v>
+        <v>-300</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I94" s="3">
+        <v>-168700</v>
+      </c>
+      <c r="J94" s="3">
         <v>-143500</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
       </c>
@@ -6421,8 +6651,8 @@
       <c r="N94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -6448,17 +6678,20 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y94" s="3">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-2900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6494,23 +6728,23 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G96" s="3">
         <v>-700</v>
       </c>
-      <c r="F96" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="G96" s="3">
-        <v>2200</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="J96" s="3">
         <v>-2200</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -6554,13 +6788,16 @@
         <v>0</v>
       </c>
       <c r="Y96" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="Z96" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,32 +7024,35 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E100" s="3">
-        <v>15900</v>
+      <c r="E100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F100" s="3">
-        <v>31200</v>
+        <v>47100</v>
       </c>
       <c r="G100" s="3">
-        <v>-137100</v>
+        <v>10900</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I100" s="3">
+        <v>157500</v>
+      </c>
+      <c r="J100" s="3">
         <v>127700</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
       </c>
@@ -6819,8 +7065,8 @@
       <c r="N100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="O100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -6846,17 +7092,20 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y100" s="3">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,32 +7178,35 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E102" s="3">
-        <v>-18400</v>
+      <c r="E102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F102" s="3">
-        <v>25300</v>
+        <v>6900</v>
       </c>
       <c r="G102" s="3">
-        <v>23600</v>
+        <v>9200</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I102" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="J102" s="3">
         <v>-14000</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>5</v>
       </c>
@@ -6967,8 +7219,8 @@
       <c r="N102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
+      <c r="O102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
@@ -6994,13 +7246,16 @@
       <c r="W102" s="3">
         <v>0</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y102" s="3">
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SSBI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SSBI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
   <si>
     <t>SSBI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,192 +665,199 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10900</v>
+        <v>11300</v>
       </c>
       <c r="E8" s="3">
         <v>10900</v>
       </c>
       <c r="F8" s="3">
+        <v>10900</v>
+      </c>
+      <c r="G8" s="3">
         <v>10600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7600</v>
-      </c>
-      <c r="O8" s="3">
-        <v>7200</v>
       </c>
       <c r="P8" s="3">
         <v>7200</v>
       </c>
       <c r="Q8" s="3">
+        <v>7200</v>
+      </c>
+      <c r="R8" s="3">
         <v>6800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6600</v>
-      </c>
-      <c r="S8" s="3">
-        <v>6100</v>
       </c>
       <c r="T8" s="3">
         <v>6100</v>
       </c>
       <c r="U8" s="3">
+        <v>6100</v>
+      </c>
+      <c r="V8" s="3">
         <v>5700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>4800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,76 +1392,77 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>400</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>300</v>
       </c>
       <c r="Z17" s="3">
         <v>300</v>
@@ -1443,85 +1470,91 @@
       <c r="AA17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E18" s="3">
         <v>9800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>8900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>9600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>9000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>8800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>8300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>5400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>5500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>5100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>5200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>4700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>4400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>4500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>4400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>4700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>4500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,67 +1582,68 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-4200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3500</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-4100</v>
       </c>
       <c r="I20" s="3">
         <v>-4100</v>
       </c>
       <c r="J20" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2700</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-3700</v>
       </c>
       <c r="P20" s="3">
         <v>-3700</v>
       </c>
       <c r="Q20" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="R20" s="3">
         <v>-3800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-3400</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-2900</v>
       </c>
       <c r="W20" s="3">
         <v>-2900</v>
@@ -1618,43 +1652,46 @@
         <v>-2900</v>
       </c>
       <c r="Y20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-2700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>5500</v>
       </c>
       <c r="F21" s="3">
-        <v>5700</v>
+        <v>5300</v>
       </c>
       <c r="G21" s="3">
+        <v>5500</v>
+      </c>
+      <c r="H21" s="3">
         <v>5600</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I21" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="J21" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K21" s="3">
         <v>4800</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1697,14 +1734,17 @@
       <c r="Y21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA21" s="3">
         <v>2100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,93 +1820,99 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E23" s="3">
         <v>5400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>5400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4700</v>
-      </c>
-      <c r="I23" s="3">
-        <v>4200</v>
       </c>
       <c r="J23" s="3">
         <v>4200</v>
       </c>
       <c r="K23" s="3">
+        <v>4200</v>
+      </c>
+      <c r="L23" s="3">
         <v>3200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2900</v>
-      </c>
-      <c r="O23" s="3">
-        <v>1700</v>
       </c>
       <c r="P23" s="3">
         <v>1700</v>
       </c>
       <c r="Q23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="R23" s="3">
         <v>1600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1500</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>2000</v>
       </c>
       <c r="Z23" s="3">
         <v>2000</v>
       </c>
       <c r="AA23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AB23" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E24" s="3">
         <v>1500</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1600</v>
       </c>
       <c r="F24" s="3">
         <v>1600</v>
@@ -1875,67 +1921,70 @@
         <v>1600</v>
       </c>
       <c r="H24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I24" s="3">
         <v>1400</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1200</v>
       </c>
       <c r="J24" s="3">
         <v>1200</v>
       </c>
       <c r="K24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L24" s="3">
         <v>900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1000</v>
-      </c>
-      <c r="M24" s="3">
-        <v>800</v>
       </c>
       <c r="N24" s="3">
         <v>800</v>
       </c>
       <c r="O24" s="3">
+        <v>800</v>
+      </c>
+      <c r="P24" s="3">
         <v>500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>500</v>
       </c>
       <c r="R24" s="3">
         <v>500</v>
       </c>
       <c r="S24" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T24" s="3">
         <v>600</v>
       </c>
       <c r="U24" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="V24" s="3">
         <v>500</v>
       </c>
       <c r="W24" s="3">
+        <v>500</v>
+      </c>
+      <c r="X24" s="3">
         <v>700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>600</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>800</v>
       </c>
       <c r="Z24" s="3">
         <v>800</v>
       </c>
       <c r="AA24" s="3">
+        <v>800</v>
+      </c>
+      <c r="AB24" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E26" s="3">
         <v>3900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1100</v>
-      </c>
-      <c r="R26" s="3">
-        <v>1500</v>
       </c>
       <c r="S26" s="3">
         <v>1500</v>
       </c>
       <c r="T26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U26" s="3">
         <v>1700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1000</v>
-      </c>
-      <c r="W26" s="3">
-        <v>900</v>
       </c>
       <c r="X26" s="3">
         <v>900</v>
       </c>
       <c r="Y26" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="Z26" s="3">
         <v>1200</v>
       </c>
       <c r="AA26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AB26" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E27" s="3">
         <v>3900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1100</v>
-      </c>
-      <c r="R27" s="3">
-        <v>1500</v>
       </c>
       <c r="S27" s="3">
         <v>1500</v>
       </c>
       <c r="T27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U27" s="3">
         <v>1700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1000</v>
-      </c>
-      <c r="W27" s="3">
-        <v>900</v>
       </c>
       <c r="X27" s="3">
         <v>900</v>
       </c>
       <c r="Y27" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="Z27" s="3">
         <v>1200</v>
       </c>
       <c r="AA27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AB27" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2277,8 +2338,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
@@ -2298,12 +2359,12 @@
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3">
         <v>-300</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,67 +2540,70 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E32" s="3">
         <v>4400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3500</v>
-      </c>
-      <c r="H32" s="3">
-        <v>4100</v>
       </c>
       <c r="I32" s="3">
         <v>4100</v>
       </c>
       <c r="J32" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K32" s="3">
         <v>3100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2700</v>
-      </c>
-      <c r="O32" s="3">
-        <v>3700</v>
       </c>
       <c r="P32" s="3">
         <v>3700</v>
       </c>
       <c r="Q32" s="3">
+        <v>3700</v>
+      </c>
+      <c r="R32" s="3">
         <v>3800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>3400</v>
-      </c>
-      <c r="V32" s="3">
-        <v>2900</v>
       </c>
       <c r="W32" s="3">
         <v>2900</v>
@@ -2542,93 +2612,99 @@
         <v>2900</v>
       </c>
       <c r="Y32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Z32" s="3">
         <v>2700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>2500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E33" s="3">
         <v>3900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1100</v>
-      </c>
-      <c r="R33" s="3">
-        <v>1500</v>
       </c>
       <c r="S33" s="3">
         <v>1500</v>
       </c>
       <c r="T33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U33" s="3">
         <v>1700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1000</v>
-      </c>
-      <c r="W33" s="3">
-        <v>900</v>
       </c>
       <c r="X33" s="3">
         <v>900</v>
       </c>
       <c r="Y33" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="Z33" s="3">
         <v>1200</v>
       </c>
       <c r="AA33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AB33" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E35" s="3">
         <v>3900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1100</v>
-      </c>
-      <c r="R35" s="3">
-        <v>1500</v>
       </c>
       <c r="S35" s="3">
         <v>1500</v>
       </c>
       <c r="T35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U35" s="3">
         <v>1700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1000</v>
-      </c>
-      <c r="W35" s="3">
-        <v>900</v>
       </c>
       <c r="X35" s="3">
         <v>900</v>
       </c>
       <c r="Y35" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="Z35" s="3">
         <v>1200</v>
       </c>
       <c r="AA35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AB35" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,93 +3007,97 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>36600</v>
+      </c>
+      <c r="E41" s="3">
         <v>65900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>40700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>37800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>56100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>46900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>30800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>24300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>68000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>36500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>38300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>37000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>12100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>18600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>21700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>20900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>23700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>18900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>68800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>20400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>20200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>20800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>24200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>20100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E42" s="3">
         <v>13500</v>
-      </c>
-      <c r="E42" s="3">
-        <v>4300</v>
       </c>
       <c r="F42" s="3">
         <v>4300</v>
@@ -3016,7 +3106,7 @@
         <v>4300</v>
       </c>
       <c r="H42" s="3">
-        <v>3400</v>
+        <v>4300</v>
       </c>
       <c r="I42" s="3">
         <v>3400</v>
@@ -3028,7 +3118,7 @@
         <v>3400</v>
       </c>
       <c r="L42" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="M42" s="3">
         <v>3300</v>
@@ -3040,7 +3130,7 @@
         <v>3300</v>
       </c>
       <c r="P42" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="Q42" s="3">
         <v>3100</v>
@@ -3052,7 +3142,7 @@
         <v>3100</v>
       </c>
       <c r="T42" s="3">
-        <v>5100</v>
+        <v>3100</v>
       </c>
       <c r="U42" s="3">
         <v>5100</v>
@@ -3061,22 +3151,25 @@
         <v>5100</v>
       </c>
       <c r="W42" s="3">
+        <v>5100</v>
+      </c>
+      <c r="X42" s="3">
         <v>4800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>5200</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>5300</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>4900</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3306,8 +3405,11 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3383,8 +3485,11 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,37 +3565,40 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5600</v>
+        <v>6500</v>
       </c>
       <c r="E48" s="3">
-        <v>5700</v>
+        <v>6700</v>
       </c>
       <c r="F48" s="3">
+        <v>6900</v>
+      </c>
+      <c r="G48" s="3">
         <v>7000</v>
-      </c>
-      <c r="G48" s="3">
-        <v>7200</v>
       </c>
       <c r="H48" s="3">
         <v>7200</v>
       </c>
       <c r="I48" s="3">
+        <v>7200</v>
+      </c>
+      <c r="J48" s="3">
         <v>7300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6200</v>
-      </c>
-      <c r="L48" s="3">
-        <v>6300</v>
       </c>
       <c r="M48" s="3">
         <v>6300</v>
@@ -3502,43 +3610,46 @@
         <v>6300</v>
       </c>
       <c r="P48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="Q48" s="3">
         <v>6400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5300</v>
-      </c>
-      <c r="S48" s="3">
-        <v>5200</v>
       </c>
       <c r="T48" s="3">
         <v>5200</v>
       </c>
       <c r="U48" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="V48" s="3">
         <v>5300</v>
       </c>
       <c r="W48" s="3">
+        <v>5300</v>
+      </c>
+      <c r="X48" s="3">
         <v>5400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>5400</v>
-      </c>
-      <c r="Z48" s="3">
-        <v>5500</v>
       </c>
       <c r="AA48" s="3">
         <v>5500</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>4100</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>981700</v>
+        <v>980800</v>
       </c>
       <c r="E54" s="3">
+        <v>982300</v>
+      </c>
+      <c r="F54" s="3">
         <v>958100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>922600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>901600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>886100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>865900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>833800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>850700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>721600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>696000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>680800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>635600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>626300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>622100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>595200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>586000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>577000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>610900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>539000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>537500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>524500</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>513700</v>
       </c>
       <c r="Z54" s="3">
         <v>513700</v>
       </c>
       <c r="AA54" s="3">
+        <v>513700</v>
+      </c>
+      <c r="AB54" s="3">
         <v>518300</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,85 +4187,89 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5100</v>
+        <v>4700</v>
       </c>
       <c r="E57" s="3">
-        <v>7800</v>
+        <v>4500</v>
       </c>
       <c r="F57" s="3">
+        <v>6600</v>
+      </c>
+      <c r="G57" s="3">
         <v>4400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4300</v>
-      </c>
-      <c r="M57" s="3">
-        <v>3300</v>
       </c>
       <c r="N57" s="3">
         <v>3300</v>
       </c>
       <c r="O57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="P57" s="3">
         <v>3500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>3200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4211,35 +4345,38 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
+      <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1100</v>
       </c>
       <c r="F59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G59" s="3">
         <v>1300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1400</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1300</v>
       </c>
       <c r="I59" s="3">
         <v>1300</v>
       </c>
       <c r="J59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4255,8 +4392,8 @@
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -4288,8 +4425,11 @@
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4365,8 +4505,11 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4407,7 +4550,7 @@
         <v>5900</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>898000</v>
+        <v>896100</v>
       </c>
       <c r="E66" s="3">
+        <v>898600</v>
+      </c>
+      <c r="F66" s="3">
         <v>873800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>840600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>822700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>810600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>790200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>760400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>779400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>653400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>628600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>614300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>570900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>562900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>560600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>534700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>525800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>517300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>551200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>478500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>477000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>465200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>455100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>453400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>458800</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>54500</v>
+      </c>
+      <c r="E72" s="3">
         <v>50800</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F72" s="3">
+        <v>47600</v>
+      </c>
+      <c r="G72" s="3">
         <v>44800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>41700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>38500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>37500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>35300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>33100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>31600</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>28800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>27500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>27000</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>25900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>25200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>24400</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W72" s="3">
         <v>23600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>23300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>23100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>22800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>22200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>84700</v>
+      </c>
+      <c r="E76" s="3">
         <v>83700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>84300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>82000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>79000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>75500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>75600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>73400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>71200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>68200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>67300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>66500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>64700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>63400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>61500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>60500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>60200</v>
-      </c>
-      <c r="T76" s="3">
-        <v>59700</v>
       </c>
       <c r="U76" s="3">
         <v>59700</v>
       </c>
       <c r="V76" s="3">
+        <v>59700</v>
+      </c>
+      <c r="W76" s="3">
         <v>60500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>60400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>59300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>58600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>60300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E81" s="3">
         <v>3900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1100</v>
-      </c>
-      <c r="R81" s="3">
-        <v>1500</v>
       </c>
       <c r="S81" s="3">
         <v>1500</v>
       </c>
       <c r="T81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U81" s="3">
         <v>1700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1000</v>
-      </c>
-      <c r="W81" s="3">
-        <v>900</v>
       </c>
       <c r="X81" s="3">
         <v>900</v>
       </c>
       <c r="Y81" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="Z81" s="3">
         <v>1200</v>
       </c>
       <c r="AA81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AB81" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,35 +6012,36 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
+      <c r="D83" s="3">
+        <v>100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
+      <c r="H83" s="3">
+        <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K83" s="3">
         <v>600</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>5</v>
       </c>
@@ -5855,8 +6054,8 @@
       <c r="O83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -5882,17 +6081,20 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>100</v>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AA83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,35 +6490,38 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
+      <c r="D89" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>22600</v>
       </c>
       <c r="F89" s="3">
-        <v>5400</v>
+        <v>46600</v>
       </c>
       <c r="G89" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H89" s="3">
         <v>-1400</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I89" s="3">
-        <v>3700</v>
+        <v>3100</v>
       </c>
       <c r="J89" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K89" s="3">
         <v>1700</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>5</v>
       </c>
@@ -6317,8 +6534,8 @@
       <c r="O89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
+      <c r="P89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -6344,17 +6561,20 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z89" s="3">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA89" s="3">
         <v>1900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,35 +6602,36 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
+      <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
       </c>
       <c r="J91" s="3">
+        <v>300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>5</v>
       </c>
@@ -6423,8 +6644,8 @@
       <c r="O91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -6450,17 +6671,20 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z91" s="3">
-        <v>0</v>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,35 +6840,38 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
+      <c r="D94" s="3">
+        <v>-60600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-16900</v>
       </c>
       <c r="F94" s="3">
-        <v>-45500</v>
+        <v>-74000</v>
       </c>
       <c r="G94" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I94" s="3">
-        <v>-168700</v>
+        <v>-7300</v>
       </c>
       <c r="J94" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-143500</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>5</v>
       </c>
@@ -6654,8 +6884,8 @@
       <c r="O94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -6681,17 +6911,20 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z94" s="3">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-2900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,35 +6952,36 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="F96" s="3">
-        <v>-2200</v>
+        <v>-800</v>
       </c>
       <c r="G96" s="3">
         <v>-700</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="I96" s="3">
-        <v>-2900</v>
+        <v>-700</v>
       </c>
       <c r="J96" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2200</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -6791,13 +7025,16 @@
         <v>0</v>
       </c>
       <c r="Z96" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="AA96" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,35 +7270,38 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
+      <c r="D100" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>19500</v>
       </c>
       <c r="F100" s="3">
-        <v>47100</v>
+        <v>30300</v>
       </c>
       <c r="G100" s="3">
+        <v>15900</v>
+      </c>
+      <c r="H100" s="3">
         <v>10900</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I100" s="3">
-        <v>157500</v>
+        <v>20300</v>
       </c>
       <c r="J100" s="3">
+        <v>29700</v>
+      </c>
+      <c r="K100" s="3">
         <v>127700</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>5</v>
       </c>
@@ -7068,8 +7314,8 @@
       <c r="O100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
+      <c r="P100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -7095,17 +7341,20 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z100" s="3">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA100" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,35 +7430,38 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
+      <c r="D102" s="3">
+        <v>-29300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>25200</v>
       </c>
       <c r="F102" s="3">
-        <v>6900</v>
+        <v>2900</v>
       </c>
       <c r="G102" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="H102" s="3">
         <v>9200</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I102" s="3">
-        <v>-7500</v>
+        <v>16100</v>
       </c>
       <c r="J102" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-14000</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>5</v>
       </c>
@@ -7222,8 +7474,8 @@
       <c r="O102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
+      <c r="P102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
@@ -7249,13 +7501,16 @@
       <c r="X102" s="3">
         <v>0</v>
       </c>
-      <c r="Y102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z102" s="3">
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SSBI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SSBI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="92">
   <si>
     <t>SSBI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,199 +665,206 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E8" s="3">
         <v>11300</v>
-      </c>
-      <c r="E8" s="3">
-        <v>10900</v>
       </c>
       <c r="F8" s="3">
         <v>10900</v>
       </c>
       <c r="G8" s="3">
+        <v>10900</v>
+      </c>
+      <c r="H8" s="3">
         <v>10600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7600</v>
-      </c>
-      <c r="P8" s="3">
-        <v>7200</v>
       </c>
       <c r="Q8" s="3">
         <v>7200</v>
       </c>
       <c r="R8" s="3">
+        <v>7200</v>
+      </c>
+      <c r="S8" s="3">
         <v>6800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6600</v>
-      </c>
-      <c r="T8" s="3">
-        <v>6100</v>
       </c>
       <c r="U8" s="3">
         <v>6100</v>
       </c>
       <c r="V8" s="3">
+        <v>6100</v>
+      </c>
+      <c r="W8" s="3">
         <v>5700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>5000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>4800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -936,8 +943,11 @@
       <c r="AB9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1026,11 @@
       <c r="AB10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1140,11 @@
       <c r="AB12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1223,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1286,8 +1306,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1389,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,79 +1419,80 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E17" s="3">
         <v>2000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>400</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>300</v>
       </c>
       <c r="AA17" s="3">
         <v>300</v>
@@ -1473,88 +1500,94 @@
       <c r="AB17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E18" s="3">
         <v>9300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>9800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>8900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>9600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>9000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>8800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>8300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>5500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>5400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>5500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>5100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>5200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>4700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>4400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>4500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>4400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>4700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>4500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,70 +1616,71 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-4400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3500</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-4100</v>
       </c>
       <c r="J20" s="3">
         <v>-4100</v>
       </c>
       <c r="K20" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="L20" s="3">
         <v>-3100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2700</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-3700</v>
       </c>
       <c r="Q20" s="3">
         <v>-3700</v>
       </c>
       <c r="R20" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="S20" s="3">
         <v>-3800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-3000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-3400</v>
-      </c>
-      <c r="W20" s="3">
-        <v>-2900</v>
       </c>
       <c r="X20" s="3">
         <v>-2900</v>
@@ -1655,46 +1689,49 @@
         <v>-2900</v>
       </c>
       <c r="Z20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-2700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-2500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>6500</v>
+      <c r="D21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E21" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F21" s="3">
+        <v>5100</v>
+      </c>
+      <c r="G21" s="3">
+        <v>5300</v>
+      </c>
+      <c r="H21" s="3">
         <v>5500</v>
       </c>
-      <c r="F21" s="3">
-        <v>5300</v>
-      </c>
-      <c r="G21" s="3">
-        <v>5500</v>
-      </c>
-      <c r="H21" s="3">
-        <v>5600</v>
-      </c>
       <c r="I21" s="3">
+        <v>5700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K21" s="3">
+        <v>4000</v>
+      </c>
+      <c r="L21" s="3">
         <v>4800</v>
       </c>
-      <c r="J21" s="3">
-        <v>4000</v>
-      </c>
-      <c r="K21" s="3">
-        <v>4800</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1737,14 +1774,17 @@
       <c r="Z21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AA21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB21" s="3">
         <v>2100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1823,99 +1863,105 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E23" s="3">
         <v>6400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>5200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4700</v>
-      </c>
-      <c r="J23" s="3">
-        <v>4200</v>
       </c>
       <c r="K23" s="3">
         <v>4200</v>
       </c>
       <c r="L23" s="3">
+        <v>4200</v>
+      </c>
+      <c r="M23" s="3">
         <v>3200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2900</v>
-      </c>
-      <c r="P23" s="3">
-        <v>1700</v>
       </c>
       <c r="Q23" s="3">
         <v>1700</v>
       </c>
       <c r="R23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S23" s="3">
         <v>1600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1500</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>2000</v>
       </c>
       <c r="AA23" s="3">
         <v>2000</v>
       </c>
       <c r="AB23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AC23" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E24" s="3">
         <v>1900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1500</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1600</v>
       </c>
       <c r="G24" s="3">
         <v>1600</v>
@@ -1924,67 +1970,70 @@
         <v>1600</v>
       </c>
       <c r="I24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J24" s="3">
         <v>1400</v>
-      </c>
-      <c r="J24" s="3">
-        <v>1200</v>
       </c>
       <c r="K24" s="3">
         <v>1200</v>
       </c>
       <c r="L24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M24" s="3">
         <v>900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1000</v>
-      </c>
-      <c r="N24" s="3">
-        <v>800</v>
       </c>
       <c r="O24" s="3">
         <v>800</v>
       </c>
       <c r="P24" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q24" s="3">
         <v>500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
-      </c>
-      <c r="R24" s="3">
-        <v>500</v>
       </c>
       <c r="S24" s="3">
         <v>500</v>
       </c>
       <c r="T24" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="U24" s="3">
         <v>600</v>
       </c>
       <c r="V24" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="W24" s="3">
         <v>500</v>
       </c>
       <c r="X24" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y24" s="3">
         <v>700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>600</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>800</v>
       </c>
       <c r="AA24" s="3">
         <v>800</v>
       </c>
       <c r="AB24" s="3">
+        <v>800</v>
+      </c>
+      <c r="AC24" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2112,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E26" s="3">
         <v>4500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1100</v>
-      </c>
-      <c r="S26" s="3">
-        <v>1500</v>
       </c>
       <c r="T26" s="3">
         <v>1500</v>
       </c>
       <c r="U26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V26" s="3">
         <v>1700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1000</v>
-      </c>
-      <c r="X26" s="3">
-        <v>900</v>
       </c>
       <c r="Y26" s="3">
         <v>900</v>
       </c>
       <c r="Z26" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="AA26" s="3">
         <v>1200</v>
       </c>
       <c r="AB26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AC26" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E27" s="3">
         <v>4500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1100</v>
-      </c>
-      <c r="S27" s="3">
-        <v>1500</v>
       </c>
       <c r="T27" s="3">
         <v>1500</v>
       </c>
       <c r="U27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V27" s="3">
         <v>1700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1000</v>
-      </c>
-      <c r="X27" s="3">
-        <v>900</v>
       </c>
       <c r="Y27" s="3">
         <v>900</v>
       </c>
       <c r="Z27" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="AA27" s="3">
         <v>1200</v>
       </c>
       <c r="AB27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AC27" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2341,8 +2402,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
@@ -2362,12 +2423,12 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3">
         <v>-300</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2383,8 +2444,11 @@
       <c r="AB29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,70 +2610,73 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E32" s="3">
         <v>2900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>4400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3500</v>
-      </c>
-      <c r="I32" s="3">
-        <v>4100</v>
       </c>
       <c r="J32" s="3">
         <v>4100</v>
       </c>
       <c r="K32" s="3">
+        <v>4100</v>
+      </c>
+      <c r="L32" s="3">
         <v>3100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2700</v>
-      </c>
-      <c r="P32" s="3">
-        <v>3700</v>
       </c>
       <c r="Q32" s="3">
         <v>3700</v>
       </c>
       <c r="R32" s="3">
+        <v>3700</v>
+      </c>
+      <c r="S32" s="3">
         <v>3800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>3000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>3400</v>
-      </c>
-      <c r="W32" s="3">
-        <v>2900</v>
       </c>
       <c r="X32" s="3">
         <v>2900</v>
@@ -2615,96 +2685,102 @@
         <v>2900</v>
       </c>
       <c r="Z32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="AA32" s="3">
         <v>2700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>2500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E33" s="3">
         <v>4500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1100</v>
-      </c>
-      <c r="S33" s="3">
-        <v>1500</v>
       </c>
       <c r="T33" s="3">
         <v>1500</v>
       </c>
       <c r="U33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V33" s="3">
         <v>1700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1000</v>
-      </c>
-      <c r="X33" s="3">
-        <v>900</v>
       </c>
       <c r="Y33" s="3">
         <v>900</v>
       </c>
       <c r="Z33" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="AA33" s="3">
         <v>1200</v>
       </c>
       <c r="AB33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AC33" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2859,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E35" s="3">
         <v>4500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1100</v>
-      </c>
-      <c r="S35" s="3">
-        <v>1500</v>
       </c>
       <c r="T35" s="3">
         <v>1500</v>
       </c>
       <c r="U35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V35" s="3">
         <v>1700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1000</v>
-      </c>
-      <c r="X35" s="3">
-        <v>900</v>
       </c>
       <c r="Y35" s="3">
         <v>900</v>
       </c>
       <c r="Z35" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="AA35" s="3">
         <v>1200</v>
       </c>
       <c r="AB35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AC35" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,99 +3094,103 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>42800</v>
+      </c>
+      <c r="E41" s="3">
         <v>36600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>65900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>40700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>37800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>56100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>46900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>30800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>24300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>68000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>36500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>38300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>37000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>12100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>18600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>21700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>20900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>23700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>18900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>68800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>20400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>20200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>20800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>24200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>20100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E42" s="3">
         <v>13800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>13500</v>
-      </c>
-      <c r="F42" s="3">
-        <v>4300</v>
       </c>
       <c r="G42" s="3">
         <v>4300</v>
@@ -3109,7 +3199,7 @@
         <v>4300</v>
       </c>
       <c r="I42" s="3">
-        <v>3400</v>
+        <v>4300</v>
       </c>
       <c r="J42" s="3">
         <v>3400</v>
@@ -3121,7 +3211,7 @@
         <v>3400</v>
       </c>
       <c r="M42" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="N42" s="3">
         <v>3300</v>
@@ -3133,7 +3223,7 @@
         <v>3300</v>
       </c>
       <c r="Q42" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="R42" s="3">
         <v>3100</v>
@@ -3145,7 +3235,7 @@
         <v>3100</v>
       </c>
       <c r="U42" s="3">
-        <v>5100</v>
+        <v>3100</v>
       </c>
       <c r="V42" s="3">
         <v>5100</v>
@@ -3154,22 +3244,25 @@
         <v>5100</v>
       </c>
       <c r="X42" s="3">
+        <v>5100</v>
+      </c>
+      <c r="Y42" s="3">
         <v>4800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>5200</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>5300</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>4900</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3248,8 +3341,11 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3424,11 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3408,8 +3507,11 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3488,8 +3590,11 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,40 +3673,43 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E48" s="3">
         <v>6500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>7200</v>
       </c>
       <c r="I48" s="3">
         <v>7200</v>
       </c>
       <c r="J48" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K48" s="3">
         <v>7300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6200</v>
-      </c>
-      <c r="M48" s="3">
-        <v>6300</v>
       </c>
       <c r="N48" s="3">
         <v>6300</v>
@@ -3613,43 +3721,46 @@
         <v>6300</v>
       </c>
       <c r="Q48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="R48" s="3">
         <v>6400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5300</v>
-      </c>
-      <c r="T48" s="3">
-        <v>5200</v>
       </c>
       <c r="U48" s="3">
         <v>5200</v>
       </c>
       <c r="V48" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="W48" s="3">
         <v>5300</v>
       </c>
       <c r="X48" s="3">
+        <v>5300</v>
+      </c>
+      <c r="Y48" s="3">
         <v>5400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>5500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>5400</v>
-      </c>
-      <c r="AA48" s="3">
-        <v>5500</v>
       </c>
       <c r="AB48" s="3">
         <v>5500</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3839,11 @@
       <c r="AB49" s="3">
         <v>4100</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4005,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3968,8 +4088,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4171,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1043800</v>
+      </c>
+      <c r="E54" s="3">
         <v>980800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>982300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>958100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>922600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>901600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>886100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>865900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>833800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>850700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>721600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>696000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>680800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>635600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>626300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>622100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>595200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>586000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>577000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>610900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>539000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>537500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>524500</v>
-      </c>
-      <c r="Z54" s="3">
-        <v>513700</v>
       </c>
       <c r="AA54" s="3">
         <v>513700</v>
       </c>
       <c r="AB54" s="3">
+        <v>513700</v>
+      </c>
+      <c r="AC54" s="3">
         <v>518300</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,88 +4318,92 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E57" s="3">
         <v>4700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4300</v>
-      </c>
-      <c r="N57" s="3">
-        <v>3300</v>
       </c>
       <c r="O57" s="3">
         <v>3300</v>
       </c>
       <c r="P57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="Q57" s="3">
         <v>3500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>3200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4348,38 +4482,41 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="3">
         <v>1000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1400</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1300</v>
       </c>
       <c r="J59" s="3">
         <v>1300</v>
       </c>
       <c r="K59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L59" s="3">
         <v>900</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4395,8 +4532,8 @@
       <c r="Q59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="R59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -4428,8 +4565,11 @@
       <c r="AB59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4508,8 +4648,11 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4553,7 +4696,7 @@
         <v>5900</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
@@ -4588,8 +4731,11 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4668,8 +4814,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5063,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>959400</v>
+      </c>
+      <c r="E66" s="3">
         <v>896100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>898600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>873800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>840600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>822700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>810600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>790200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>760400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>779400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>653400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>628600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>614300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>570900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>562900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>560600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>534700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>525800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>517300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>551200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>478500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>477000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>465200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>455100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>453400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>458800</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5509,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>57600</v>
+      </c>
+      <c r="E72" s="3">
         <v>54500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>50800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>47600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>44800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>41700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>38500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>37500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>35300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>33100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>31600</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>28800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>27500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>27000</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3">
         <v>25900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>25200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>24400</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W72" s="3">
+      <c r="W72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X72" s="3">
         <v>23600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>23300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>23100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>22800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>22200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5841,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>84400</v>
+      </c>
+      <c r="E76" s="3">
         <v>84700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>83700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>84300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>82000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>79000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>75500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>75600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>73400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>71200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>68200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>67300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>66500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>64700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>63400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>61500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>60500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>60200</v>
-      </c>
-      <c r="U76" s="3">
-        <v>59700</v>
       </c>
       <c r="V76" s="3">
         <v>59700</v>
       </c>
       <c r="W76" s="3">
+        <v>59700</v>
+      </c>
+      <c r="X76" s="3">
         <v>60500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>60400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>59300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>58600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>60300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6007,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E81" s="3">
         <v>4500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1100</v>
-      </c>
-      <c r="S81" s="3">
-        <v>1500</v>
       </c>
       <c r="T81" s="3">
         <v>1500</v>
       </c>
       <c r="U81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V81" s="3">
         <v>1700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1000</v>
-      </c>
-      <c r="X81" s="3">
-        <v>900</v>
       </c>
       <c r="Y81" s="3">
         <v>900</v>
       </c>
       <c r="Z81" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="AA81" s="3">
         <v>1200</v>
       </c>
       <c r="AB81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AC81" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,19 +6211,20 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>100</v>
+      <c r="D83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
@@ -6034,17 +6233,17 @@
         <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J83" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K83" s="3">
         <v>-200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>600</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>5</v>
       </c>
@@ -6057,8 +6256,8 @@
       <c r="P83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -6084,17 +6283,20 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>100</v>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AB83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,38 +6707,41 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>34000</v>
+      <c r="D89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E89" s="3">
-        <v>22600</v>
+        <v>56600</v>
       </c>
       <c r="F89" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="G89" s="3">
         <v>46600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3700</v>
       </c>
-      <c r="H89" s="3">
-        <v>-1400</v>
-      </c>
       <c r="I89" s="3">
-        <v>3100</v>
+        <v>1700</v>
       </c>
       <c r="J89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K89" s="3">
         <v>2000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1700</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>5</v>
       </c>
@@ -6537,8 +6754,8 @@
       <c r="P89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
@@ -6564,17 +6781,20 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-      <c r="Z89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA89" s="3">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB89" s="3">
         <v>1900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,19 +6823,20 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -6627,14 +6848,14 @@
         <v>-100</v>
       </c>
       <c r="J91" s="3">
+        <v>100</v>
+      </c>
+      <c r="K91" s="3">
         <v>300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>5</v>
       </c>
@@ -6647,8 +6868,8 @@
       <c r="P91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -6674,17 +6895,20 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA91" s="3">
-        <v>0</v>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,38 +7070,41 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-60600</v>
+      <c r="D94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E94" s="3">
-        <v>-16900</v>
+        <v>-77500</v>
       </c>
       <c r="F94" s="3">
+        <v>102600</v>
+      </c>
+      <c r="G94" s="3">
         <v>-74000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-38000</v>
       </c>
-      <c r="H94" s="3">
-        <v>-300</v>
-      </c>
       <c r="I94" s="3">
-        <v>-7300</v>
+        <v>-7600</v>
       </c>
       <c r="J94" s="3">
+        <v>161400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-25200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-143500</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>5</v>
       </c>
@@ -6887,8 +7117,8 @@
       <c r="P94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -6914,17 +7144,20 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA94" s="3">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB94" s="3">
         <v>-2900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,38 +7186,39 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F96" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G96" s="3">
         <v>-800</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-800</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-700</v>
       </c>
       <c r="H96" s="3">
         <v>-700</v>
       </c>
       <c r="I96" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J96" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-700</v>
       </c>
-      <c r="J96" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2200</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -7028,13 +7262,16 @@
         <v>0</v>
       </c>
       <c r="AA96" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="AB96" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,38 +7516,41 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-2700</v>
+      <c r="D100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E100" s="3">
-        <v>19500</v>
+        <v>16800</v>
       </c>
       <c r="F100" s="3">
+        <v>-57800</v>
+      </c>
+      <c r="G100" s="3">
         <v>30300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>15900</v>
       </c>
-      <c r="H100" s="3">
-        <v>10900</v>
-      </c>
       <c r="I100" s="3">
-        <v>20300</v>
+        <v>31200</v>
       </c>
       <c r="J100" s="3">
+        <v>-137100</v>
+      </c>
+      <c r="K100" s="3">
         <v>29700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>127700</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>5</v>
       </c>
@@ -7317,8 +7563,8 @@
       <c r="P100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -7344,17 +7590,20 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA100" s="3">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB100" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,38 +7682,41 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-29300</v>
+      <c r="D102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E102" s="3">
-        <v>25200</v>
+        <v>-4100</v>
       </c>
       <c r="F102" s="3">
+        <v>15300</v>
+      </c>
+      <c r="G102" s="3">
         <v>2900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-18400</v>
       </c>
-      <c r="H102" s="3">
-        <v>9200</v>
-      </c>
       <c r="I102" s="3">
-        <v>16100</v>
+        <v>25300</v>
       </c>
       <c r="J102" s="3">
+        <v>23600</v>
+      </c>
+      <c r="K102" s="3">
         <v>6600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-14000</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>5</v>
       </c>
@@ -7477,8 +7729,8 @@
       <c r="P102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
@@ -7504,13 +7756,16 @@
       <c r="Y102" s="3">
         <v>0</v>
       </c>
-      <c r="Z102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA102" s="3">
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB102" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SSBI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SSBI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="92">
   <si>
     <t>SSBI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,212 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E8" s="3">
         <v>12500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11300</v>
-      </c>
-      <c r="F8" s="3">
-        <v>10900</v>
       </c>
       <c r="G8" s="3">
         <v>10900</v>
       </c>
       <c r="H8" s="3">
+        <v>10900</v>
+      </c>
+      <c r="I8" s="3">
         <v>10600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7600</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>7200</v>
       </c>
       <c r="R8" s="3">
         <v>7200</v>
       </c>
       <c r="S8" s="3">
+        <v>7200</v>
+      </c>
+      <c r="T8" s="3">
         <v>6800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6600</v>
-      </c>
-      <c r="U8" s="3">
-        <v>6100</v>
       </c>
       <c r="V8" s="3">
         <v>6100</v>
       </c>
       <c r="W8" s="3">
+        <v>6100</v>
+      </c>
+      <c r="X8" s="3">
         <v>5700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>4800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>5000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>4800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -946,8 +952,11 @@
       <c r="AC9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1029,8 +1038,11 @@
       <c r="AC10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1143,8 +1156,11 @@
       <c r="AC12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1242,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1309,8 +1328,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1392,8 +1414,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,82 +1445,83 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E17" s="3">
         <v>2300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>400</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>300</v>
       </c>
       <c r="AB17" s="3">
         <v>300</v>
@@ -1503,91 +1529,97 @@
       <c r="AC17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E18" s="3">
         <v>10200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>9300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>9800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>8900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>9600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>9000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>8800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>5300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>5500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>5400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>5500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>5100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>5200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>4700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>4400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>4500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>4400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>4700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>4500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,73 +1649,74 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-4400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3500</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-4100</v>
       </c>
       <c r="K20" s="3">
         <v>-4100</v>
       </c>
       <c r="L20" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="M20" s="3">
         <v>-3100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2700</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-3700</v>
       </c>
       <c r="R20" s="3">
         <v>-3700</v>
       </c>
       <c r="S20" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="T20" s="3">
         <v>-3800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-3500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-3000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-3400</v>
-      </c>
-      <c r="X20" s="3">
-        <v>-2900</v>
       </c>
       <c r="Y20" s="3">
         <v>-2900</v>
@@ -1692,49 +1725,52 @@
         <v>-2900</v>
       </c>
       <c r="AA20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-2700</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-2500</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="3">
-        <v>6600</v>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F21" s="3">
+        <v>6500</v>
+      </c>
+      <c r="G21" s="3">
         <v>5100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>5300</v>
-      </c>
-      <c r="H21" s="3">
-        <v>5500</v>
       </c>
       <c r="I21" s="3">
         <v>5700</v>
       </c>
       <c r="J21" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K21" s="3">
         <v>4400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4800</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1777,14 +1813,17 @@
       <c r="AA21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AB21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC21" s="3">
         <v>2100</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1866,91 +1905,97 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E23" s="3">
         <v>5700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>5400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4700</v>
-      </c>
-      <c r="K23" s="3">
-        <v>4200</v>
       </c>
       <c r="L23" s="3">
         <v>4200</v>
       </c>
       <c r="M23" s="3">
+        <v>4200</v>
+      </c>
+      <c r="N23" s="3">
         <v>3200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2900</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>1700</v>
       </c>
       <c r="R23" s="3">
         <v>1700</v>
       </c>
       <c r="S23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="T23" s="3">
         <v>1600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1500</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>2000</v>
       </c>
       <c r="AB23" s="3">
         <v>2000</v>
       </c>
       <c r="AC23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AD23" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1958,13 +2003,13 @@
         <v>1800</v>
       </c>
       <c r="E24" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F24" s="3">
         <v>1900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1500</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1600</v>
       </c>
       <c r="H24" s="3">
         <v>1600</v>
@@ -1973,67 +2018,70 @@
         <v>1600</v>
       </c>
       <c r="J24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K24" s="3">
         <v>1400</v>
-      </c>
-      <c r="K24" s="3">
-        <v>1200</v>
       </c>
       <c r="L24" s="3">
         <v>1200</v>
       </c>
       <c r="M24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N24" s="3">
         <v>900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1000</v>
-      </c>
-      <c r="O24" s="3">
-        <v>800</v>
       </c>
       <c r="P24" s="3">
         <v>800</v>
       </c>
       <c r="Q24" s="3">
+        <v>800</v>
+      </c>
+      <c r="R24" s="3">
         <v>500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
-      </c>
-      <c r="S24" s="3">
-        <v>500</v>
       </c>
       <c r="T24" s="3">
         <v>500</v>
       </c>
       <c r="U24" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="V24" s="3">
         <v>600</v>
       </c>
       <c r="W24" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="X24" s="3">
         <v>500</v>
       </c>
       <c r="Y24" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z24" s="3">
         <v>700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>600</v>
-      </c>
-      <c r="AA24" s="3">
-        <v>800</v>
       </c>
       <c r="AB24" s="3">
         <v>800</v>
       </c>
       <c r="AC24" s="3">
+        <v>800</v>
+      </c>
+      <c r="AD24" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E26" s="3">
         <v>4000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1100</v>
-      </c>
-      <c r="T26" s="3">
-        <v>1500</v>
       </c>
       <c r="U26" s="3">
         <v>1500</v>
       </c>
       <c r="V26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W26" s="3">
         <v>1700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1000</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>900</v>
       </c>
       <c r="Z26" s="3">
         <v>900</v>
       </c>
       <c r="AA26" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="AB26" s="3">
         <v>1200</v>
       </c>
       <c r="AC26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AD26" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E27" s="3">
         <v>4000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1100</v>
-      </c>
-      <c r="T27" s="3">
-        <v>1500</v>
       </c>
       <c r="U27" s="3">
         <v>1500</v>
       </c>
       <c r="V27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W27" s="3">
         <v>1700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1000</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>900</v>
       </c>
       <c r="Z27" s="3">
         <v>900</v>
       </c>
       <c r="AA27" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="AB27" s="3">
         <v>1200</v>
       </c>
       <c r="AC27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AD27" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2405,8 +2465,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
@@ -2426,12 +2486,12 @@
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X29" s="3">
         <v>-300</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2447,8 +2507,11 @@
       <c r="AC29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,73 +2679,76 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E32" s="3">
         <v>4400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3500</v>
-      </c>
-      <c r="J32" s="3">
-        <v>4100</v>
       </c>
       <c r="K32" s="3">
         <v>4100</v>
       </c>
       <c r="L32" s="3">
+        <v>4100</v>
+      </c>
+      <c r="M32" s="3">
         <v>3100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2700</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>3700</v>
       </c>
       <c r="R32" s="3">
         <v>3700</v>
       </c>
       <c r="S32" s="3">
+        <v>3700</v>
+      </c>
+      <c r="T32" s="3">
         <v>3800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>3500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>3000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>3400</v>
-      </c>
-      <c r="X32" s="3">
-        <v>2900</v>
       </c>
       <c r="Y32" s="3">
         <v>2900</v>
@@ -2688,99 +2757,105 @@
         <v>2900</v>
       </c>
       <c r="AA32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="AB32" s="3">
         <v>2700</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>2500</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E33" s="3">
         <v>4000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1100</v>
-      </c>
-      <c r="T33" s="3">
-        <v>1500</v>
       </c>
       <c r="U33" s="3">
         <v>1500</v>
       </c>
       <c r="V33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W33" s="3">
         <v>1700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1000</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>900</v>
       </c>
       <c r="Z33" s="3">
         <v>900</v>
       </c>
       <c r="AA33" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="AB33" s="3">
         <v>1200</v>
       </c>
       <c r="AC33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AD33" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E35" s="3">
         <v>4000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1100</v>
-      </c>
-      <c r="T35" s="3">
-        <v>1500</v>
       </c>
       <c r="U35" s="3">
         <v>1500</v>
       </c>
       <c r="V35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W35" s="3">
         <v>1700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1000</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>900</v>
       </c>
       <c r="Z35" s="3">
         <v>900</v>
       </c>
       <c r="AA35" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="AB35" s="3">
         <v>1200</v>
       </c>
       <c r="AC35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AD35" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,105 +3180,109 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>75200</v>
+      </c>
+      <c r="E41" s="3">
         <v>42800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>36600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>65900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>40700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>37800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>56100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>46900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>30800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>24300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>68000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>36500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>38300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>37000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>12100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>18600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>21700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>20900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>23700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>18900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>68800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>20400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>20200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>20800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>24200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>20100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E42" s="3">
         <v>13700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>13800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>13500</v>
-      </c>
-      <c r="G42" s="3">
-        <v>4300</v>
       </c>
       <c r="H42" s="3">
         <v>4300</v>
@@ -3202,7 +3291,7 @@
         <v>4300</v>
       </c>
       <c r="J42" s="3">
-        <v>3400</v>
+        <v>4300</v>
       </c>
       <c r="K42" s="3">
         <v>3400</v>
@@ -3214,7 +3303,7 @@
         <v>3400</v>
       </c>
       <c r="N42" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="O42" s="3">
         <v>3300</v>
@@ -3226,7 +3315,7 @@
         <v>3300</v>
       </c>
       <c r="R42" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="S42" s="3">
         <v>3100</v>
@@ -3238,7 +3327,7 @@
         <v>3100</v>
       </c>
       <c r="V42" s="3">
-        <v>5100</v>
+        <v>3100</v>
       </c>
       <c r="W42" s="3">
         <v>5100</v>
@@ -3247,22 +3336,25 @@
         <v>5100</v>
       </c>
       <c r="Y42" s="3">
+        <v>5100</v>
+      </c>
+      <c r="Z42" s="3">
         <v>4800</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>5200</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>5300</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>4900</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3344,8 +3436,11 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3427,8 +3522,11 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3510,8 +3608,11 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3593,8 +3694,11 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3676,8 +3780,11 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3685,34 +3792,34 @@
         <v>5500</v>
       </c>
       <c r="E48" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F48" s="3">
         <v>6500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7000</v>
-      </c>
-      <c r="I48" s="3">
-        <v>7200</v>
       </c>
       <c r="J48" s="3">
         <v>7200</v>
       </c>
       <c r="K48" s="3">
+        <v>7200</v>
+      </c>
+      <c r="L48" s="3">
         <v>7300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6200</v>
-      </c>
-      <c r="N48" s="3">
-        <v>6300</v>
       </c>
       <c r="O48" s="3">
         <v>6300</v>
@@ -3724,43 +3831,46 @@
         <v>6300</v>
       </c>
       <c r="R48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="S48" s="3">
         <v>6400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5300</v>
-      </c>
-      <c r="U48" s="3">
-        <v>5200</v>
       </c>
       <c r="V48" s="3">
         <v>5200</v>
       </c>
       <c r="W48" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="X48" s="3">
         <v>5300</v>
       </c>
       <c r="Y48" s="3">
+        <v>5300</v>
+      </c>
+      <c r="Z48" s="3">
         <v>5400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>5500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>5400</v>
-      </c>
-      <c r="AB48" s="3">
-        <v>5500</v>
       </c>
       <c r="AC48" s="3">
         <v>5500</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3842,8 +3952,11 @@
       <c r="AC49" s="3">
         <v>4100</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,8 +4124,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4091,8 +4210,11 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4296,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1113000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1043800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>980800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>982300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>958100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>922600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>901600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>886100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>865900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>833800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>850700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>721600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>696000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>680800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>635600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>626300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>622100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>595200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>586000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>577000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>610900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>539000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>537500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>524500</v>
-      </c>
-      <c r="AA54" s="3">
-        <v>513700</v>
       </c>
       <c r="AB54" s="3">
         <v>513700</v>
       </c>
       <c r="AC54" s="3">
+        <v>513700</v>
+      </c>
+      <c r="AD54" s="3">
         <v>518300</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,91 +4448,95 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E57" s="3">
         <v>6100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4300</v>
-      </c>
-      <c r="O57" s="3">
-        <v>3300</v>
       </c>
       <c r="P57" s="3">
         <v>3300</v>
       </c>
       <c r="Q57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="R57" s="3">
         <v>3500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>3200</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4485,41 +4618,44 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3">
         <v>1000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1400</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1300</v>
       </c>
       <c r="K59" s="3">
         <v>1300</v>
       </c>
       <c r="L59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M59" s="3">
         <v>900</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4535,8 +4671,8 @@
       <c r="R59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
+      <c r="S59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
@@ -4568,8 +4704,11 @@
       <c r="AC59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4651,8 +4790,11 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4699,7 +4841,7 @@
         <v>5900</v>
       </c>
       <c r="R61" s="3">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="S61" s="3">
         <v>0</v>
@@ -4734,8 +4876,11 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4817,8 +4962,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1024500</v>
+      </c>
+      <c r="E66" s="3">
         <v>959400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>896100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>898600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>873800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>840600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>822700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>810600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>790200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>760400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>779400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>653400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>628600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>614300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>570900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>562900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>560600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>534700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>525800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>517300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>551200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>478500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>477000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>465200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>455100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>453400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>458800</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="3">
         <v>57600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>54500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>50800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>47600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>44800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>41700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>38500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>37500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>35300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>33100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>31600</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>28800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>27500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>27000</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3">
         <v>25900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>25200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>24400</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y72" s="3">
         <v>23600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>23300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>23100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>22800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>22200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>88500</v>
+      </c>
+      <c r="E76" s="3">
         <v>84400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>84700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>83700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>84300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>82000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>79000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>75500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>75600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>73400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>71200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>68200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>67300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>66500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>64700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>63400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>61500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>60500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>60200</v>
-      </c>
-      <c r="V76" s="3">
-        <v>59700</v>
       </c>
       <c r="W76" s="3">
         <v>59700</v>
       </c>
       <c r="X76" s="3">
+        <v>59700</v>
+      </c>
+      <c r="Y76" s="3">
         <v>60500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>60400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>59300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>58600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>60300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E81" s="3">
         <v>4000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1100</v>
-      </c>
-      <c r="T81" s="3">
-        <v>1500</v>
       </c>
       <c r="U81" s="3">
         <v>1500</v>
       </c>
       <c r="V81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W81" s="3">
         <v>1700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1000</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>900</v>
       </c>
       <c r="Z81" s="3">
         <v>900</v>
       </c>
       <c r="AA81" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="AB81" s="3">
         <v>1200</v>
       </c>
       <c r="AC81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AD81" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,41 +6409,42 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E83" s="3">
-        <v>200</v>
+      <c r="E83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F83" s="3">
+        <v>100</v>
+      </c>
+      <c r="G83" s="3">
         <v>-300</v>
-      </c>
-      <c r="G83" s="3">
-        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J83" s="3">
+        <v>100</v>
+      </c>
+      <c r="K83" s="3">
         <v>-300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>-200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>600</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>5</v>
       </c>
@@ -6259,8 +6457,8 @@
       <c r="Q83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -6286,17 +6484,20 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB83" s="3">
-        <v>100</v>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AC83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,41 +6923,44 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E89" s="3">
-        <v>56600</v>
+      <c r="E89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F89" s="3">
+        <v>34000</v>
+      </c>
+      <c r="G89" s="3">
         <v>-29500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>46600</v>
       </c>
-      <c r="H89" s="3">
-        <v>3700</v>
-      </c>
       <c r="I89" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L89" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M89" s="3">
         <v>1700</v>
       </c>
-      <c r="J89" s="3">
-        <v>-600</v>
-      </c>
-      <c r="K89" s="3">
-        <v>2000</v>
-      </c>
-      <c r="L89" s="3">
-        <v>1700</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>5</v>
       </c>
@@ -6757,8 +6973,8 @@
       <c r="Q89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
+      <c r="R89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
@@ -6784,17 +7000,20 @@
       <c r="Z89" s="3">
         <v>0</v>
       </c>
-      <c r="AA89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB89" s="3">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC89" s="3">
         <v>1900</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,19 +7043,20 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
+      <c r="D91" s="3">
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -6848,17 +7068,17 @@
         <v>-100</v>
       </c>
       <c r="J91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K91" s="3">
         <v>100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>5</v>
       </c>
@@ -6871,8 +7091,8 @@
       <c r="Q91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -6898,17 +7118,20 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB91" s="3">
-        <v>0</v>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,41 +7299,44 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E94" s="3">
-        <v>-77500</v>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F94" s="3">
+        <v>-60600</v>
+      </c>
+      <c r="G94" s="3">
         <v>102600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-74000</v>
       </c>
-      <c r="H94" s="3">
-        <v>-38000</v>
-      </c>
       <c r="I94" s="3">
-        <v>-7600</v>
+        <v>-45500</v>
       </c>
       <c r="J94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K94" s="3">
         <v>161400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-25200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-143500</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>5</v>
       </c>
@@ -7120,8 +7349,8 @@
       <c r="Q94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -7147,17 +7376,20 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB94" s="3">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC94" s="3">
         <v>-2900</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7196,32 +7429,32 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-1600</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G96" s="3">
         <v>2200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-800</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="J96" s="3">
         <v>-700</v>
       </c>
-      <c r="I96" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>2200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2200</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -7265,13 +7498,16 @@
         <v>0</v>
       </c>
       <c r="AB96" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="AC96" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,41 +7761,44 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E100" s="3">
-        <v>16800</v>
+      <c r="E100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F100" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="G100" s="3">
         <v>-57800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>30300</v>
       </c>
-      <c r="H100" s="3">
-        <v>15900</v>
-      </c>
       <c r="I100" s="3">
-        <v>31200</v>
+        <v>47100</v>
       </c>
       <c r="J100" s="3">
+        <v>10900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-137100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>29700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>127700</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>5</v>
       </c>
@@ -7566,8 +7811,8 @@
       <c r="Q100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
+      <c r="R100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
@@ -7593,17 +7838,20 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-      <c r="AA100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB100" s="3">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC100" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7685,41 +7933,44 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E102" s="3">
-        <v>-4100</v>
+      <c r="E102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F102" s="3">
+        <v>-29300</v>
+      </c>
+      <c r="G102" s="3">
         <v>15300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2900</v>
       </c>
-      <c r="H102" s="3">
-        <v>-18400</v>
-      </c>
       <c r="I102" s="3">
-        <v>25300</v>
+        <v>6900</v>
       </c>
       <c r="J102" s="3">
+        <v>9200</v>
+      </c>
+      <c r="K102" s="3">
         <v>23600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-14000</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>5</v>
       </c>
@@ -7732,8 +7983,8 @@
       <c r="Q102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
+      <c r="R102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S102" s="3">
         <v>0</v>
@@ -7759,13 +8010,16 @@
       <c r="Z102" s="3">
         <v>0</v>
       </c>
-      <c r="AA102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB102" s="3">
+      <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC102" s="3">
         <v>-2100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SSBI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SSBI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="92">
   <si>
     <t>SSBI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,200 +665,208 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AF7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>14600</v>
+      </c>
+      <c r="F8" s="3">
         <v>14200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>12500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>11300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>10900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>10900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>10600</v>
-      </c>
-      <c r="J8" s="3">
-        <v>10100</v>
-      </c>
-      <c r="K8" s="3">
-        <v>10400</v>
       </c>
       <c r="L8" s="3">
         <v>10100</v>
       </c>
       <c r="M8" s="3">
+        <v>10400</v>
+      </c>
+      <c r="N8" s="3">
+        <v>10100</v>
+      </c>
+      <c r="O8" s="3">
         <v>9200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>8800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>8300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>8000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>7600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>7200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>7200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>6800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>6600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>6100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>6100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>5700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>5200</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>5000</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>4800</v>
       </c>
       <c r="AB8" s="3">
         <v>5000</v>
@@ -867,10 +875,16 @@
         <v>4800</v>
       </c>
       <c r="AD8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>4800</v>
+      </c>
+      <c r="AF8" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -955,8 +969,14 @@
       <c r="AD9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1041,8 +1061,14 @@
       <c r="AD10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,8 +1099,10 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1159,8 +1187,14 @@
       <c r="AD12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1279,14 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1331,8 +1371,14 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1417,8 +1463,14 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1498,194 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F17" s="3">
         <v>3600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2300</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2000</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1100</v>
       </c>
       <c r="H17" s="3">
         <v>2000</v>
       </c>
       <c r="I17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1100</v>
-      </c>
-      <c r="V17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="W17" s="3">
-        <v>900</v>
       </c>
       <c r="X17" s="3">
         <v>1000</v>
       </c>
       <c r="Y17" s="3">
+        <v>900</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AA17" s="3">
         <v>800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>400</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>300</v>
-      </c>
-      <c r="AC17" s="3">
-        <v>300</v>
       </c>
       <c r="AD17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3">
+        <v>300</v>
+      </c>
+      <c r="AF17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F18" s="3">
         <v>10600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>10200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>9300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>9800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>8900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>9600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>9000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>8800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>8300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>7300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>6700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>5900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>6000</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>5500</v>
-      </c>
-      <c r="R18" s="3">
-        <v>5300</v>
       </c>
       <c r="S18" s="3">
         <v>5500</v>
       </c>
       <c r="T18" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="U18" s="3">
         <v>5500</v>
       </c>
       <c r="V18" s="3">
+        <v>5400</v>
+      </c>
+      <c r="W18" s="3">
+        <v>5500</v>
+      </c>
+      <c r="X18" s="3">
         <v>5100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>5200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>4700</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>4400</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>4500</v>
       </c>
       <c r="AA18" s="3">
         <v>4400</v>
       </c>
       <c r="AB18" s="3">
+        <v>4500</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>4400</v>
+      </c>
+      <c r="AD18" s="3">
         <v>4700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>4500</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AF18" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,133 +1716,141 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F20" s="3">
         <v>-4300</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-2900</v>
       </c>
       <c r="G20" s="3">
         <v>-4400</v>
       </c>
       <c r="H20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="J20" s="3">
         <v>-3700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-4200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-3500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-4100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-4100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-3100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-3500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-2500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-2700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-3700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-3700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-3800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-3500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-3000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-2800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-3400</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>-2900</v>
       </c>
       <c r="AA20" s="3">
         <v>-2900</v>
       </c>
       <c r="AB20" s="3">
-        <v>-2700</v>
+        <v>-2900</v>
       </c>
       <c r="AC20" s="3">
-        <v>-2500</v>
+        <v>-2900</v>
       </c>
       <c r="AD20" s="3">
         <v>-2700</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="AF20" s="3">
+        <v>-2700</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="D21" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3">
         <v>6500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>5100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>5300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>5700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>5600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>4400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>4000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>4800</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1816,14 +1890,20 @@
       <c r="AB21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AC21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE21" s="3">
         <v>2100</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AF21" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1908,180 +1988,198 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F23" s="3">
         <v>6300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>5700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>6400</v>
-      </c>
-      <c r="G23" s="3">
-        <v>5400</v>
-      </c>
-      <c r="H23" s="3">
-        <v>5200</v>
       </c>
       <c r="I23" s="3">
         <v>5400</v>
       </c>
       <c r="J23" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K23" s="3">
+        <v>5400</v>
+      </c>
+      <c r="L23" s="3">
         <v>5500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>4700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>4200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>4200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>3200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>3400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>2600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>2900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>1700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>1700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>1600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>2000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>2100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>2400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>1300</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>1500</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>1600</v>
       </c>
       <c r="AA23" s="3">
         <v>1500</v>
       </c>
       <c r="AB23" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AD23" s="3">
         <v>2000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>2000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AF23" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F24" s="3">
         <v>1800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>1800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>1500</v>
-      </c>
-      <c r="H24" s="3">
-        <v>1600</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1600</v>
       </c>
       <c r="J24" s="3">
         <v>1600</v>
       </c>
       <c r="K24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M24" s="3">
         <v>1400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>1200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>1000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>800</v>
-      </c>
-      <c r="R24" s="3">
-        <v>500</v>
-      </c>
-      <c r="S24" s="3">
-        <v>300</v>
       </c>
       <c r="T24" s="3">
         <v>500</v>
       </c>
       <c r="U24" s="3">
+        <v>300</v>
+      </c>
+      <c r="V24" s="3">
         <v>500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
+        <v>500</v>
+      </c>
+      <c r="X24" s="3">
         <v>600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>800</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AE24" s="3">
         <v>800</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AF24" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2264,198 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F26" s="3">
         <v>4600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>4000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>4500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>3900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>3700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>3800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>3900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>3300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>2900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>3000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>2200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>2400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>2000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>1200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>1400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>1100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>1500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>1500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>1700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>1000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>1200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>1200</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AF26" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F27" s="3">
         <v>4600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>4000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>4500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>3900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>3700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>3800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>3900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>3300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>2900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>3000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>2200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>2400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>2000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>1200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>1400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>1100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>1500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>1500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>1700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>1000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>1200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>1200</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AF27" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2540,14 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2468,11 +2590,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
@@ -2489,15 +2611,15 @@
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-300</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2510,8 +2632,14 @@
       <c r="AD29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2724,14 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2816,198 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F32" s="3">
         <v>4300</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4400</v>
-      </c>
-      <c r="F32" s="3">
-        <v>2900</v>
       </c>
       <c r="G32" s="3">
         <v>4400</v>
       </c>
       <c r="H32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I32" s="3">
+        <v>4400</v>
+      </c>
+      <c r="J32" s="3">
         <v>3700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>4200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>3500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>4100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>4100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>3100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>3500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>2500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>3300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>2700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>3700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>3700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>3800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>3500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>3000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>2800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>3400</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>2900</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>2900</v>
       </c>
       <c r="AA32" s="3">
         <v>2900</v>
       </c>
       <c r="AB32" s="3">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="AC32" s="3">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="AD32" s="3">
         <v>2700</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>2500</v>
+      </c>
+      <c r="AF32" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F33" s="3">
         <v>4600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>4000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>4500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>3900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>3700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>3800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>3900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>3300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>2900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>3000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>2200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>2400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>2000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>1200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>1400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>1100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>1500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>1500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>1700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>1000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>1200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>1200</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AF33" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3092,203 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F35" s="3">
         <v>4600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>4000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>4500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>3900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>3700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>3800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>3900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>3300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>2900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>3000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>2200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>2400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>2000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>1200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>1400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>1100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>1500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>1500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>1700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>1000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>1200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>1200</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AF35" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AF38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3319,10 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,123 +3353,131 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>112400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>116600</v>
+      </c>
+      <c r="F41" s="3">
         <v>75200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>42800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>36600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>65900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>40700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>37800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>56100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>46900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>30800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>24300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>68000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>36500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>38300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>37000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>12100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>18600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>21700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>20900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>23700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>18900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>68800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>20400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>20200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>20800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>24200</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>20100</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AF41" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E42" s="3">
+        <v>13500</v>
+      </c>
+      <c r="F42" s="3">
         <v>13600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>13700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>13800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>13500</v>
-      </c>
-      <c r="H42" s="3">
-        <v>4300</v>
-      </c>
-      <c r="I42" s="3">
-        <v>4300</v>
       </c>
       <c r="J42" s="3">
         <v>4300</v>
       </c>
       <c r="K42" s="3">
-        <v>3400</v>
+        <v>4300</v>
       </c>
       <c r="L42" s="3">
-        <v>3400</v>
+        <v>4300</v>
       </c>
       <c r="M42" s="3">
         <v>3400</v>
@@ -3306,10 +3486,10 @@
         <v>3400</v>
       </c>
       <c r="O42" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="P42" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="Q42" s="3">
         <v>3300</v>
@@ -3318,10 +3498,10 @@
         <v>3300</v>
       </c>
       <c r="S42" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="T42" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="U42" s="3">
         <v>3100</v>
@@ -3330,31 +3510,37 @@
         <v>3100</v>
       </c>
       <c r="W42" s="3">
-        <v>5100</v>
+        <v>3100</v>
       </c>
       <c r="X42" s="3">
-        <v>5100</v>
+        <v>3100</v>
       </c>
       <c r="Y42" s="3">
         <v>5100</v>
       </c>
       <c r="Z42" s="3">
+        <v>5100</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>5100</v>
+      </c>
+      <c r="AB42" s="3">
         <v>4800</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>5200</v>
-      </c>
-      <c r="AB42" s="3">
-        <v>5300</v>
-      </c>
-      <c r="AC42" s="3">
-        <v>4900</v>
       </c>
       <c r="AD42" s="3">
         <v>5300</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>4900</v>
+      </c>
+      <c r="AF42" s="3">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3439,8 +3625,14 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,8 +3717,14 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3611,8 +3809,14 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3697,8 +3901,14 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,49 +3993,55 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F48" s="3">
         <v>5500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>5500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>6500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>6700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>6900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>7000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>7200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>7200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>7300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>7000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>6200</v>
-      </c>
-      <c r="O48" s="3">
-        <v>6300</v>
-      </c>
-      <c r="P48" s="3">
-        <v>6300</v>
       </c>
       <c r="Q48" s="3">
         <v>6300</v>
@@ -3834,31 +4050,31 @@
         <v>6300</v>
       </c>
       <c r="S48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="T48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="U48" s="3">
         <v>6400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>5800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>5300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>5200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>5200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>5300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>5300</v>
-      </c>
-      <c r="Z48" s="3">
-        <v>5400</v>
-      </c>
-      <c r="AA48" s="3">
-        <v>5500</v>
       </c>
       <c r="AB48" s="3">
         <v>5400</v>
@@ -3867,10 +4083,16 @@
         <v>5500</v>
       </c>
       <c r="AD48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="AE48" s="3">
         <v>5500</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3955,8 +4177,14 @@
       <c r="AD49" s="3">
         <v>4100</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>4100</v>
+      </c>
+      <c r="AF49" s="3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4269,14 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4361,14 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4213,8 +4453,14 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4545,106 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1161400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1147000</v>
+      </c>
+      <c r="F54" s="3">
         <v>1113000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1043800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>980800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>982300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>958100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>922600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>901600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>886100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>865900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>833800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>850700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>721600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>696000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>680800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>635600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>626300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>622100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>595200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>586000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>577000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>610900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>539000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>537500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>524500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>513700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>513700</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AF54" s="3">
         <v>518300</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4675,10 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,94 +4709,102 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F57" s="3">
         <v>10200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>6100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>4700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>4500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>6600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>4400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>4200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>5600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>4300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>3300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>3300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>3500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>3000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>2600</v>
-      </c>
-      <c r="U57" s="3">
-        <v>2200</v>
-      </c>
-      <c r="V57" s="3">
-        <v>1600</v>
       </c>
       <c r="W57" s="3">
         <v>2200</v>
       </c>
       <c r="X57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Z57" s="3">
         <v>2700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>2100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>2000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>2300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>1900</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>3200</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AF57" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4621,47 +4889,53 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="3">
+      <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3">
         <v>1000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1200</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1300</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1400</v>
       </c>
       <c r="K59" s="3">
         <v>1300</v>
       </c>
       <c r="L59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M59" s="3">
         <v>1300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O59" s="3">
         <v>900</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4674,11 +4948,11 @@
       <c r="S59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
-      </c>
-      <c r="U59" s="3">
-        <v>0</v>
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V59" s="3">
         <v>0</v>
@@ -4707,8 +4981,14 @@
       <c r="AD59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4793,8 +5073,14 @@
       <c r="AD60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4844,10 +5130,10 @@
         <v>5900</v>
       </c>
       <c r="S61" s="3">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="T61" s="3">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="U61" s="3">
         <v>0</v>
@@ -4879,8 +5165,14 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4965,8 +5257,14 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5349,14 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5441,14 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5533,106 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1067000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1054400</v>
+      </c>
+      <c r="F66" s="3">
         <v>1024500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>959400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>896100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>898600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>873800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>840600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>822700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>810600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>790200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>760400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>779400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>653400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>628600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>614300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>570900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>562900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>560600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>534700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>525800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>517300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>551200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>478500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>477000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>465200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>455100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>453400</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AF66" s="3">
         <v>458800</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5663,10 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5751,14 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5843,14 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5935,14 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +6027,106 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>5</v>
+      <c r="D72" s="3">
+        <v>66800</v>
       </c>
       <c r="E72" s="3">
+        <v>64700</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3">
         <v>57600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>54500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>50800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>47600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>44800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>41700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>38500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>37500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>35300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>33100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>31600</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>28800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>27500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>27000</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W72" s="3">
         <v>25900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>25200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>24400</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA72" s="3">
         <v>23600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>23300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>23100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>22800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>22200</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AF72" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6211,14 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6303,14 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6395,106 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>94400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>92700</v>
+      </c>
+      <c r="F76" s="3">
         <v>88500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>84400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>84700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>83700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>84300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>82000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>79000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>75500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>75600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>73400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>71200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>68200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>67300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>66500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>64700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>63400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>61500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>60500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>60200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>59700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>59700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>60500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>60400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>59300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>58600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>60300</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AF76" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6579,203 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AF80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F81" s="3">
         <v>4600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>4000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>4500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>3900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>3700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>3800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>3900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>3300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>2900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>3000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>2200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>2400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>2000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>1200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>1400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>1100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>1500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>1500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>1700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>1000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>1200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>1200</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AF81" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,47 +6806,49 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" s="3">
+      <c r="D83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3">
-        <v>-300</v>
+      <c r="E83" s="3">
+        <v>100</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>300</v>
+        <v>-300</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
       </c>
       <c r="K83" s="3">
+        <v>300</v>
+      </c>
+      <c r="L83" s="3">
+        <v>100</v>
+      </c>
+      <c r="M83" s="3">
         <v>-300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>-200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>600</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>5</v>
       </c>
@@ -6460,11 +6858,11 @@
       <c r="R83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
-      <c r="T83" s="3">
-        <v>0</v>
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
@@ -6487,17 +6885,23 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-      <c r="AB83" s="3" t="s">
-        <v>5</v>
+      <c r="AB83" s="3">
+        <v>0</v>
       </c>
       <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE83" s="3">
         <v>100</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AF83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6986,14 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +7078,14 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +7170,14 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7262,14 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,47 +7354,53 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="D89" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="3">
         <v>34000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-29500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>46600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>5400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>2000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>1700</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>5</v>
       </c>
@@ -6976,11 +7410,11 @@
       <c r="R89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-      <c r="T89" s="3">
-        <v>0</v>
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U89" s="3">
         <v>0</v>
@@ -7003,17 +7437,23 @@
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-      <c r="AB89" s="3" t="s">
-        <v>5</v>
+      <c r="AB89" s="3">
+        <v>0</v>
       </c>
       <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE89" s="3">
         <v>1900</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AF89" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,19 +7484,21 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -7065,26 +7507,26 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>5</v>
       </c>
@@ -7094,11 +7536,11 @@
       <c r="R91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -7121,17 +7563,23 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-      <c r="AB91" s="3" t="s">
-        <v>5</v>
+      <c r="AB91" s="3">
+        <v>0</v>
       </c>
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-      <c r="AD91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7664,14 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,47 +7756,53 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-60600</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="D94" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="I94" s="3">
         <v>102600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-74000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-45500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>161400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-25200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-143500</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>5</v>
       </c>
@@ -7352,11 +7812,11 @@
       <c r="R94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
@@ -7379,17 +7839,23 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-      <c r="AB94" s="3" t="s">
-        <v>5</v>
+      <c r="AB94" s="3">
+        <v>0</v>
       </c>
       <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE94" s="3">
         <v>-2900</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AF94" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,47 +7886,49 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="F96" s="3">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
         <v>-800</v>
       </c>
       <c r="I96" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2200</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K96" s="3">
-        <v>2200</v>
       </c>
       <c r="L96" s="3">
         <v>-700</v>
       </c>
       <c r="M96" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N96" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O96" s="3">
         <v>-2200</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -7501,13 +7969,19 @@
         <v>0</v>
       </c>
       <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-600</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AF96" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +8066,14 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +8158,14 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,47 +8250,53 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="D100" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>34200</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3">
         <v>-2700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-57800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>30300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>47100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>10900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-137100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>29700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>127700</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>5</v>
       </c>
@@ -7814,11 +8306,11 @@
       <c r="R100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
-        <v>0</v>
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
@@ -7841,17 +8333,23 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-      <c r="AB100" s="3" t="s">
-        <v>5</v>
+      <c r="AB100" s="3">
+        <v>0</v>
       </c>
       <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE100" s="3">
         <v>-1100</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AF100" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,47 +8434,53 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="D102" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>39000</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3">
         <v>-29300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>15300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>2900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>6900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>9200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>23600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>6600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-14000</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>5</v>
       </c>
@@ -7986,11 +8490,11 @@
       <c r="R102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3">
-        <v>0</v>
+      <c r="S102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U102" s="3">
         <v>0</v>
@@ -8013,13 +8517,19 @@
       <c r="AA102" s="3">
         <v>0</v>
       </c>
-      <c r="AB102" s="3" t="s">
-        <v>5</v>
+      <c r="AB102" s="3">
+        <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE102" s="3">
         <v>-2100</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AF102" s="3">
         <v>700</v>
       </c>
     </row>
